--- a/CreateBaseDeck/Debug.xlsx
+++ b/CreateBaseDeck/Debug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1537"/>
+  <dimension ref="A1:G1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33894,11 +33894,11 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1154" t="n">
-        <v>0.4372159036243386</v>
+        <v>0.4263821290679012</v>
       </c>
       <c r="G1154" t="inlineStr"/>
     </row>
@@ -33923,11 +33923,11 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1155" t="n">
-        <v>0.4383939206031746</v>
+        <v>0.4237285579320988</v>
       </c>
       <c r="G1155" t="inlineStr"/>
     </row>
@@ -33952,11 +33952,11 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1156" t="n">
-        <v>0.4325668082063492</v>
+        <v>0.4269469917407407</v>
       </c>
       <c r="G1156" t="inlineStr"/>
     </row>
@@ -33981,11 +33981,11 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1157" t="n">
-        <v>0.4190243680476191</v>
+        <v>0.4145113708518519</v>
       </c>
       <c r="G1157" t="inlineStr"/>
     </row>
@@ -34010,11 +34010,11 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1158" t="n">
-        <v>0.418575826015873</v>
+        <v>0.4179280768148149</v>
       </c>
       <c r="G1158" t="inlineStr"/>
     </row>
@@ -34039,11 +34039,11 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1159" t="n">
-        <v>0.418107803063492</v>
+        <v>0.4145904629320988</v>
       </c>
       <c r="G1159" t="inlineStr"/>
     </row>
@@ -34068,11 +34068,11 @@
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1160" t="n">
-        <v>0.4031500556984127</v>
+        <v>0.3960263199012346</v>
       </c>
       <c r="G1160" t="inlineStr"/>
     </row>
@@ -34097,11 +34097,11 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1161" t="n">
-        <v>0.3191575490952381</v>
+        <v>0.3250749126481481</v>
       </c>
       <c r="G1161" t="inlineStr"/>
     </row>
@@ -34126,11 +34126,11 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1162" t="n">
-        <v>0.248780795915344</v>
+        <v>0.2793877269382716</v>
       </c>
       <c r="G1162" t="inlineStr"/>
     </row>
@@ -34155,11 +34155,11 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1163" t="n">
-        <v>0.245925606968254</v>
+        <v>0.2764020243888889</v>
       </c>
       <c r="G1163" t="inlineStr"/>
     </row>
@@ -34184,11 +34184,11 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1164" t="n">
-        <v>0.2535631197037037</v>
+        <v>0.2811277847098765</v>
       </c>
       <c r="G1164" t="inlineStr"/>
     </row>
@@ -34213,11 +34213,11 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1165" t="n">
-        <v>0.2629804624603175</v>
+        <v>0.2882640764012346</v>
       </c>
       <c r="G1165" t="inlineStr"/>
     </row>
@@ -34242,11 +34242,11 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1166" t="n">
-        <v>0.2690693401375661</v>
+        <v>0.296733874537037</v>
       </c>
       <c r="G1166" t="inlineStr"/>
     </row>
@@ -34271,11 +34271,11 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1167" t="n">
-        <v>0.2727412497407407</v>
+        <v>0.3047995416419753</v>
       </c>
       <c r="G1167" t="inlineStr"/>
     </row>
@@ -34300,11 +34300,11 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1168" t="n">
-        <v>0.2738986602010582</v>
+        <v>0.3082631011790123</v>
       </c>
       <c r="G1168" t="inlineStr"/>
     </row>
@@ -34329,11 +34329,11 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1169" t="n">
-        <v>0.2704083501746032</v>
+        <v>0.3016564952777778</v>
       </c>
       <c r="G1169" t="inlineStr"/>
     </row>
@@ -34358,11 +34358,11 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1170" t="n">
-        <v>0.3274923545185185</v>
+        <v>0.3492191296975309</v>
       </c>
       <c r="G1170" t="inlineStr"/>
     </row>
@@ -34387,11 +34387,11 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1171" t="n">
-        <v>0.3689394838042328</v>
+        <v>0.3824802036049383</v>
       </c>
       <c r="G1171" t="inlineStr"/>
     </row>
@@ -34416,11 +34416,11 @@
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1172" t="n">
-        <v>0.3937900859629629</v>
+        <v>0.3968466332839506</v>
       </c>
       <c r="G1172" t="inlineStr"/>
     </row>
@@ -34445,11 +34445,11 @@
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1173" t="n">
-        <v>0.4113090111428571</v>
+        <v>0.4120883835185185</v>
       </c>
       <c r="G1173" t="inlineStr"/>
     </row>
@@ -34474,11 +34474,11 @@
       </c>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1174" t="n">
-        <v>0.4193812925820106</v>
+        <v>0.4236788724938272</v>
       </c>
       <c r="G1174" t="inlineStr"/>
     </row>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1175" t="n">
-        <v>0.4269360407724868</v>
+        <v>0.427971797808642</v>
       </c>
       <c r="G1175" t="inlineStr"/>
     </row>
@@ -34532,11 +34532,11 @@
       </c>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1176" t="n">
-        <v>0.4288085914920636</v>
+        <v>0.4281768597839506</v>
       </c>
       <c r="G1176" t="inlineStr"/>
     </row>
@@ -34561,11 +34561,11 @@
       </c>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1177" t="n">
-        <v>0.4311639486878308</v>
+        <v>0.4239234315555555</v>
       </c>
       <c r="G1177" t="inlineStr"/>
     </row>
@@ -34590,11 +34590,11 @@
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1178" t="n">
-        <v>0.4261908603830227</v>
+        <v>0.4035083564975846</v>
       </c>
       <c r="G1178" t="inlineStr"/>
     </row>
@@ -34619,11 +34619,11 @@
       </c>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1179" t="n">
-        <v>0.4239392229658385</v>
+        <v>0.3962164251570048</v>
       </c>
       <c r="G1179" t="inlineStr"/>
     </row>
@@ -34648,11 +34648,11 @@
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1180" t="n">
-        <v>0.4210851215631469</v>
+        <v>0.4022585039734299</v>
       </c>
       <c r="G1180" t="inlineStr"/>
     </row>
@@ -34677,11 +34677,11 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1181" t="n">
-        <v>0.4160463095962733</v>
+        <v>0.3952727912922706</v>
       </c>
       <c r="G1181" t="inlineStr"/>
     </row>
@@ -34706,11 +34706,11 @@
       </c>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1182" t="n">
-        <v>0.4153818333592132</v>
+        <v>0.39010469397343</v>
       </c>
       <c r="G1182" t="inlineStr"/>
     </row>
@@ -34735,11 +34735,11 @@
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1183" t="n">
-        <v>0.3672235316252588</v>
+        <v>0.3434567248731885</v>
       </c>
       <c r="G1183" t="inlineStr"/>
     </row>
@@ -34764,11 +34764,11 @@
       </c>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1184" t="n">
-        <v>0.2513402558385093</v>
+        <v>0.2708557059782609</v>
       </c>
       <c r="G1184" t="inlineStr"/>
     </row>
@@ -34793,11 +34793,11 @@
       </c>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1185" t="n">
-        <v>0.2140309101863354</v>
+        <v>0.2536900519625603</v>
       </c>
       <c r="G1185" t="inlineStr"/>
     </row>
@@ -34822,11 +34822,11 @@
       </c>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1186" t="n">
-        <v>0.2294149024171843</v>
+        <v>0.2684902335869566</v>
       </c>
       <c r="G1186" t="inlineStr"/>
     </row>
@@ -34851,11 +34851,11 @@
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1187" t="n">
-        <v>0.2442751553571428</v>
+        <v>0.2799896354649758</v>
       </c>
       <c r="G1187" t="inlineStr"/>
     </row>
@@ -34880,11 +34880,11 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1188" t="n">
-        <v>0.2646789778933748</v>
+        <v>0.2981974721195652</v>
       </c>
       <c r="G1188" t="inlineStr"/>
     </row>
@@ -34909,11 +34909,11 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1189" t="n">
-        <v>0.2872222119772257</v>
+        <v>0.3216595321376812</v>
       </c>
       <c r="G1189" t="inlineStr"/>
     </row>
@@ -34938,11 +34938,11 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1190" t="n">
-        <v>0.3156310612111802</v>
+        <v>0.3395741767934783</v>
       </c>
       <c r="G1190" t="inlineStr"/>
     </row>
@@ -34967,11 +34967,11 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1191" t="n">
-        <v>0.3430379883436853</v>
+        <v>0.3693055409541063</v>
       </c>
       <c r="G1191" t="inlineStr"/>
     </row>
@@ -34996,11 +34996,11 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1192" t="n">
-        <v>0.3598706623240166</v>
+        <v>0.3791158184178744</v>
       </c>
       <c r="G1192" t="inlineStr"/>
     </row>
@@ -35025,11 +35025,11 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1193" t="n">
-        <v>0.344370511257764</v>
+        <v>0.3820243498550724</v>
       </c>
       <c r="G1193" t="inlineStr"/>
     </row>
@@ -35054,11 +35054,11 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1194" t="n">
-        <v>0.3179769305434783</v>
+        <v>0.3589799344625604</v>
       </c>
       <c r="G1194" t="inlineStr"/>
     </row>
@@ -35083,11 +35083,11 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1195" t="n">
-        <v>0.3409702940942029</v>
+        <v>0.3523259645652174</v>
       </c>
       <c r="G1195" t="inlineStr"/>
     </row>
@@ -35112,11 +35112,11 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1196" t="n">
-        <v>0.3822208704710145</v>
+        <v>0.3918084607669082</v>
       </c>
       <c r="G1196" t="inlineStr"/>
     </row>
@@ -35141,11 +35141,11 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1197" t="n">
-        <v>0.408489164353002</v>
+        <v>0.4048707595954106</v>
       </c>
       <c r="G1197" t="inlineStr"/>
     </row>
@@ -35170,11 +35170,11 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1198" t="n">
-        <v>0.4187577464182194</v>
+        <v>0.4031611694806763</v>
       </c>
       <c r="G1198" t="inlineStr"/>
     </row>
@@ -35199,11 +35199,11 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1199" t="n">
-        <v>0.4284385235662526</v>
+        <v>0.4013755800241546</v>
       </c>
       <c r="G1199" t="inlineStr"/>
     </row>
@@ -35228,11 +35228,11 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1200" t="n">
-        <v>0.4298078518322981</v>
+        <v>0.3988959429830918</v>
       </c>
       <c r="G1200" t="inlineStr"/>
     </row>
@@ -35257,11 +35257,11 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1201" t="n">
-        <v>0.4298891249430642</v>
+        <v>0.3972981476811594</v>
       </c>
       <c r="G1201" t="inlineStr"/>
     </row>
@@ -35286,11 +35286,11 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1202" t="n">
-        <v>0.2593578284834369</v>
+        <v>0.2284902469142512</v>
       </c>
       <c r="G1202" t="inlineStr"/>
     </row>
@@ -35315,11 +35315,11 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1203" t="n">
-        <v>0.2604452086697723</v>
+        <v>0.2335331376932367</v>
       </c>
       <c r="G1203" t="inlineStr"/>
     </row>
@@ -35344,11 +35344,11 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1204" t="n">
-        <v>0.2623201097204969</v>
+        <v>0.2368301770289855</v>
       </c>
       <c r="G1204" t="inlineStr"/>
     </row>
@@ -35373,11 +35373,11 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1205" t="n">
-        <v>0.2614998032298137</v>
+        <v>0.2328016881582126</v>
       </c>
       <c r="G1205" t="inlineStr"/>
     </row>
@@ -35402,11 +35402,11 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1206" t="n">
-        <v>0.2576606026863354</v>
+        <v>0.2304756417028986</v>
       </c>
       <c r="G1206" t="inlineStr"/>
     </row>
@@ -35431,11 +35431,11 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1207" t="n">
-        <v>0.1446237302587992</v>
+        <v>0.1398452848188406</v>
       </c>
       <c r="G1207" t="inlineStr"/>
     </row>
@@ -35460,11 +35460,11 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1208" t="n">
-        <v>0.09030164525362319</v>
+        <v>0.1200140740217392</v>
       </c>
       <c r="G1208" t="inlineStr"/>
     </row>
@@ -35489,11 +35489,11 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1209" t="n">
-        <v>0.09240707897515528</v>
+        <v>0.1159928652777778</v>
       </c>
       <c r="G1209" t="inlineStr"/>
     </row>
@@ -35518,11 +35518,11 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1210" t="n">
-        <v>0.09451061779503107</v>
+        <v>0.1237981112077295</v>
       </c>
       <c r="G1210" t="inlineStr"/>
     </row>
@@ -35547,11 +35547,11 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1211" t="n">
-        <v>0.1054398394824017</v>
+        <v>0.1368245654951691</v>
       </c>
       <c r="G1211" t="inlineStr"/>
     </row>
@@ -35576,11 +35576,11 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1212" t="n">
-        <v>0.1231444929140787</v>
+        <v>0.1659652496678744</v>
       </c>
       <c r="G1212" t="inlineStr"/>
     </row>
@@ -35605,11 +35605,11 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1213" t="n">
-        <v>0.1615014720134575</v>
+        <v>0.199241360307971</v>
       </c>
       <c r="G1213" t="inlineStr"/>
     </row>
@@ -35634,11 +35634,11 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1214" t="n">
-        <v>0.2131594355434782</v>
+        <v>0.2371877551932367</v>
       </c>
       <c r="G1214" t="inlineStr"/>
     </row>
@@ -35663,11 +35663,11 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1215" t="n">
-        <v>0.2476850855745342</v>
+        <v>0.2829126266545894</v>
       </c>
       <c r="G1215" t="inlineStr"/>
     </row>
@@ -35692,11 +35692,11 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1216" t="n">
-        <v>0.2806517902898551</v>
+        <v>0.3020624034359903</v>
       </c>
       <c r="G1216" t="inlineStr"/>
     </row>
@@ -35721,11 +35721,11 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1217" t="n">
-        <v>0.2826903829503106</v>
+        <v>0.3063951698248792</v>
       </c>
       <c r="G1217" t="inlineStr"/>
     </row>
@@ -35750,11 +35750,11 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1218" t="n">
-        <v>0.2506456364544514</v>
+        <v>0.2922325219746377</v>
       </c>
       <c r="G1218" t="inlineStr"/>
     </row>
@@ -35779,11 +35779,11 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1219" t="n">
-        <v>0.2180077207142857</v>
+        <v>0.2466981860205315</v>
       </c>
       <c r="G1219" t="inlineStr"/>
     </row>
@@ -35808,11 +35808,11 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1220" t="n">
-        <v>0.2604803158695652</v>
+        <v>0.2481006052294686</v>
       </c>
       <c r="G1220" t="inlineStr"/>
     </row>
@@ -35837,11 +35837,11 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1221" t="n">
-        <v>0.2573921117960663</v>
+        <v>0.2441977171014493</v>
       </c>
       <c r="G1221" t="inlineStr"/>
     </row>
@@ -35866,11 +35866,11 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1222" t="n">
-        <v>0.2550039696583851</v>
+        <v>0.2382047282487923</v>
       </c>
       <c r="G1222" t="inlineStr"/>
     </row>
@@ -35895,11 +35895,11 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1223" t="n">
-        <v>0.2483670231521739</v>
+        <v>0.2303744608031401</v>
       </c>
       <c r="G1223" t="inlineStr"/>
     </row>
@@ -35924,11 +35924,11 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1224" t="n">
-        <v>0.2568374463198758</v>
+        <v>0.2308042679227053</v>
       </c>
       <c r="G1224" t="inlineStr"/>
     </row>
@@ -35953,11 +35953,11 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1225" t="n">
-        <v>0.2612932964337474</v>
+        <v>0.2289469650543479</v>
       </c>
       <c r="G1225" t="inlineStr"/>
     </row>
@@ -35982,11 +35982,11 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1226" t="n">
-        <v>0.3794300332496076</v>
+        <v>0.3327284688827839</v>
       </c>
       <c r="G1226" t="inlineStr"/>
     </row>
@@ -36011,11 +36011,11 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1227" t="n">
-        <v>0.3904757625222396</v>
+        <v>0.3304257713492064</v>
       </c>
       <c r="G1227" t="inlineStr"/>
     </row>
@@ -36040,11 +36040,11 @@
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1228" t="n">
-        <v>0.3885142828623757</v>
+        <v>0.3371216892124542</v>
       </c>
       <c r="G1228" t="inlineStr"/>
     </row>
@@ -36069,11 +36069,11 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1229" t="n">
-        <v>0.3835781750497121</v>
+        <v>0.3349026384249085</v>
       </c>
       <c r="G1229" t="inlineStr"/>
     </row>
@@ -36098,11 +36098,11 @@
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1230" t="n">
-        <v>0.3820058231658817</v>
+        <v>0.3396799380525031</v>
       </c>
       <c r="G1230" t="inlineStr"/>
     </row>
@@ -36127,11 +36127,11 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1231" t="n">
-        <v>0.3739935726478284</v>
+        <v>0.3246499501526252</v>
       </c>
       <c r="G1231" t="inlineStr"/>
     </row>
@@ -36156,11 +36156,11 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1232" t="n">
-        <v>0.3164391815489273</v>
+        <v>0.2780399042612943</v>
       </c>
       <c r="G1232" t="inlineStr"/>
     </row>
@@ -36185,11 +36185,11 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1233" t="n">
-        <v>0.2131334279173208</v>
+        <v>0.2259378346336996</v>
       </c>
       <c r="G1233" t="inlineStr"/>
     </row>
@@ -36214,11 +36214,11 @@
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1234" t="n">
-        <v>0.1745653121036107</v>
+        <v>0.2178717462454212</v>
       </c>
       <c r="G1234" t="inlineStr"/>
     </row>
@@ -36243,11 +36243,11 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1235" t="n">
-        <v>0.1779342346624804</v>
+        <v>0.2177995894444444</v>
       </c>
       <c r="G1235" t="inlineStr"/>
     </row>
@@ -36272,11 +36272,11 @@
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1236" t="n">
-        <v>0.1880083477498692</v>
+        <v>0.2248444572161172</v>
       </c>
       <c r="G1236" t="inlineStr"/>
     </row>
@@ -36301,11 +36301,11 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1237" t="n">
-        <v>0.1942472463369964</v>
+        <v>0.2368637690903541</v>
       </c>
       <c r="G1237" t="inlineStr"/>
     </row>
@@ -36330,11 +36330,11 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1238" t="n">
-        <v>0.2020862366091052</v>
+        <v>0.2463617084249084</v>
       </c>
       <c r="G1238" t="inlineStr"/>
     </row>
@@ -36359,11 +36359,11 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1239" t="n">
-        <v>0.2157824036787022</v>
+        <v>0.2503460140964591</v>
       </c>
       <c r="G1239" t="inlineStr"/>
     </row>
@@ -36388,11 +36388,11 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1240" t="n">
-        <v>0.2235257721088436</v>
+        <v>0.2501199936996337</v>
       </c>
       <c r="G1240" t="inlineStr"/>
     </row>
@@ -36417,11 +36417,11 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1241" t="n">
-        <v>0.2115413867242282</v>
+        <v>0.2426119639377289</v>
       </c>
       <c r="G1241" t="inlineStr"/>
     </row>
@@ -36446,11 +36446,11 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1242" t="n">
-        <v>0.2529936173888017</v>
+        <v>0.2685162427228327</v>
       </c>
       <c r="G1242" t="inlineStr"/>
     </row>
@@ -36475,11 +36475,11 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1243" t="n">
-        <v>0.3095311670538984</v>
+        <v>0.3106740698778999</v>
       </c>
       <c r="G1243" t="inlineStr"/>
     </row>
@@ -36504,11 +36504,11 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1244" t="n">
-        <v>0.3319235311145997</v>
+        <v>0.3309815852075702</v>
       </c>
       <c r="G1244" t="inlineStr"/>
     </row>
@@ -36533,11 +36533,11 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1245" t="n">
-        <v>0.3510428850863422</v>
+        <v>0.3305513080463981</v>
       </c>
       <c r="G1245" t="inlineStr"/>
     </row>
@@ -36562,11 +36562,11 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1246" t="n">
-        <v>0.3623647665044479</v>
+        <v>0.3315894021489622</v>
       </c>
       <c r="G1246" t="inlineStr"/>
     </row>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1247" t="n">
-        <v>0.3745188139351125</v>
+        <v>0.3253821303968254</v>
       </c>
       <c r="G1247" t="inlineStr"/>
     </row>
@@ -36620,11 +36620,11 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1248" t="n">
-        <v>0.3777416061486133</v>
+        <v>0.3231551456532357</v>
       </c>
       <c r="G1248" t="inlineStr"/>
     </row>
@@ -36649,11 +36649,11 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1249" t="n">
-        <v>0.3813554101936159</v>
+        <v>0.3271557823260073</v>
       </c>
       <c r="G1249" t="inlineStr"/>
     </row>
@@ -36678,11 +36678,11 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1250" t="n">
-        <v>0.4208428678518519</v>
+        <v>0.4522727234814815</v>
       </c>
       <c r="G1250" t="inlineStr"/>
     </row>
@@ -36707,11 +36707,11 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1251" t="n">
-        <v>0.4168533691058201</v>
+        <v>0.4427999054973544</v>
       </c>
       <c r="G1251" t="inlineStr"/>
     </row>
@@ -36736,11 +36736,11 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1252" t="n">
-        <v>0.4108359219206349</v>
+        <v>0.4406134263915343</v>
       </c>
       <c r="G1252" t="inlineStr"/>
     </row>
@@ -36765,11 +36765,11 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1253" t="n">
-        <v>0.3940109768571428</v>
+        <v>0.4327880055502645</v>
       </c>
       <c r="G1253" t="inlineStr"/>
     </row>
@@ -36794,11 +36794,11 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1254" t="n">
-        <v>0.3844714697619048</v>
+        <v>0.4415986533862433</v>
       </c>
       <c r="G1254" t="inlineStr"/>
     </row>
@@ -36823,11 +36823,11 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1255" t="n">
-        <v>0.3820993886137566</v>
+        <v>0.4293113037989418</v>
       </c>
       <c r="G1255" t="inlineStr"/>
     </row>
@@ -36852,11 +36852,11 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1256" t="n">
-        <v>0.3673697699153439</v>
+        <v>0.411217455978836</v>
       </c>
       <c r="G1256" t="inlineStr"/>
     </row>
@@ -36881,11 +36881,11 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1257" t="n">
-        <v>0.2978848177566137</v>
+        <v>0.3182898283492064</v>
       </c>
       <c r="G1257" t="inlineStr"/>
     </row>
@@ -36910,11 +36910,11 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1258" t="n">
-        <v>0.2358188993703704</v>
+        <v>0.2642563076931217</v>
       </c>
       <c r="G1258" t="inlineStr"/>
     </row>
@@ -36939,11 +36939,11 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1259" t="n">
-        <v>0.2176938230899471</v>
+        <v>0.2618085132222222</v>
       </c>
       <c r="G1259" t="inlineStr"/>
     </row>
@@ -36968,11 +36968,11 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1260" t="n">
-        <v>0.2195390221587302</v>
+        <v>0.2700501169100529</v>
       </c>
       <c r="G1260" t="inlineStr"/>
     </row>
@@ -36997,11 +36997,11 @@
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1261" t="n">
-        <v>0.2247712692962963</v>
+        <v>0.2799226436613756</v>
       </c>
       <c r="G1261" t="inlineStr"/>
     </row>
@@ -37026,11 +37026,11 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1262" t="n">
-        <v>0.2424065460740741</v>
+        <v>0.2884740253068783</v>
       </c>
       <c r="G1262" t="inlineStr"/>
     </row>
@@ -37055,11 +37055,11 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1263" t="n">
-        <v>0.2512057679312169</v>
+        <v>0.2873400783544974</v>
       </c>
       <c r="G1263" t="inlineStr"/>
     </row>
@@ -37084,11 +37084,11 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1264" t="n">
-        <v>0.2552332984656085</v>
+        <v>0.2896402063280423</v>
       </c>
       <c r="G1264" t="inlineStr"/>
     </row>
@@ -37113,11 +37113,11 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1265" t="n">
-        <v>0.2528318449153439</v>
+        <v>0.2918145378095238</v>
       </c>
       <c r="G1265" t="inlineStr"/>
     </row>
@@ -37142,11 +37142,11 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1266" t="n">
-        <v>0.3087717756137566</v>
+        <v>0.3608672445502645</v>
       </c>
       <c r="G1266" t="inlineStr"/>
     </row>
@@ -37171,11 +37171,11 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1267" t="n">
-        <v>0.3657735428624339</v>
+        <v>0.4037404768518518</v>
       </c>
       <c r="G1267" t="inlineStr"/>
     </row>
@@ -37200,11 +37200,11 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1268" t="n">
-        <v>0.3952958375767196</v>
+        <v>0.4234543122380952</v>
       </c>
       <c r="G1268" t="inlineStr"/>
     </row>
@@ -37229,11 +37229,11 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1269" t="n">
-        <v>0.4119983699576719</v>
+        <v>0.4341233595079365</v>
       </c>
       <c r="G1269" t="inlineStr"/>
     </row>
@@ -37258,11 +37258,11 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1270" t="n">
-        <v>0.4250554047089947</v>
+        <v>0.4335856413227514</v>
       </c>
       <c r="G1270" t="inlineStr"/>
     </row>
@@ -37287,11 +37287,11 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1271" t="n">
-        <v>0.4303584887777777</v>
+        <v>0.4416437906349206</v>
       </c>
       <c r="G1271" t="inlineStr"/>
     </row>
@@ -37316,11 +37316,11 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1272" t="n">
-        <v>0.4288442823174604</v>
+        <v>0.4505068967830689</v>
       </c>
       <c r="G1272" t="inlineStr"/>
     </row>
@@ -37345,11 +37345,11 @@
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1273" t="n">
-        <v>0.4296441436507937</v>
+        <v>0.4473125922857142</v>
       </c>
       <c r="G1273" t="inlineStr"/>
     </row>
@@ -37374,11 +37374,11 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1274" t="n">
-        <v>0.4691008272619048</v>
+        <v>0.4318462415838509</v>
       </c>
       <c r="G1274" t="inlineStr"/>
     </row>
@@ -37403,11 +37403,11 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1275" t="n">
-        <v>0.4591681901863354</v>
+        <v>0.4404327767753623</v>
       </c>
       <c r="G1275" t="inlineStr"/>
     </row>
@@ -37432,11 +37432,11 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1276" t="n">
-        <v>0.4478107612888199</v>
+        <v>0.4382519567650103</v>
       </c>
       <c r="G1276" t="inlineStr"/>
     </row>
@@ -37461,11 +37461,11 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1277" t="n">
-        <v>0.4344779142650104</v>
+        <v>0.4301206654710146</v>
       </c>
       <c r="G1277" t="inlineStr"/>
     </row>
@@ -37490,11 +37490,11 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1278" t="n">
-        <v>0.4263089514285714</v>
+        <v>0.4249982692028986</v>
       </c>
       <c r="G1278" t="inlineStr"/>
     </row>
@@ -37519,11 +37519,11 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1279" t="n">
-        <v>0.3713204304347826</v>
+        <v>0.3746186420548654</v>
       </c>
       <c r="G1279" t="inlineStr"/>
     </row>
@@ -37548,11 +37548,11 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1280" t="n">
-        <v>0.2548545081573499</v>
+        <v>0.271725676578675</v>
       </c>
       <c r="G1280" t="inlineStr"/>
     </row>
@@ -37577,11 +37577,11 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1281" t="n">
-        <v>0.2100111775621118</v>
+        <v>0.254349246247412</v>
       </c>
       <c r="G1281" t="inlineStr"/>
     </row>
@@ -37606,11 +37606,11 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1282" t="n">
-        <v>0.2152396778519669</v>
+        <v>0.2606085792857143</v>
       </c>
       <c r="G1282" t="inlineStr"/>
     </row>
@@ -37635,11 +37635,11 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1283" t="n">
-        <v>0.2253966204244307</v>
+        <v>0.2756636827587992</v>
       </c>
       <c r="G1283" t="inlineStr"/>
     </row>
@@ -37664,11 +37664,11 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1284" t="n">
-        <v>0.2346807688302278</v>
+        <v>0.2940447226345755</v>
       </c>
       <c r="G1284" t="inlineStr"/>
     </row>
@@ -37693,11 +37693,11 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1285" t="n">
-        <v>0.2435753293271222</v>
+        <v>0.3090266564182195</v>
       </c>
       <c r="G1285" t="inlineStr"/>
     </row>
@@ -37722,11 +37722,11 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1286" t="n">
-        <v>0.2584225400465838</v>
+        <v>0.3270299599016563</v>
       </c>
       <c r="G1286" t="inlineStr"/>
     </row>
@@ -37751,11 +37751,11 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1287" t="n">
-        <v>0.2771445412318841</v>
+        <v>0.3602657630020704</v>
       </c>
       <c r="G1287" t="inlineStr"/>
     </row>
@@ -37780,11 +37780,11 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1288" t="n">
-        <v>0.2904712966770187</v>
+        <v>0.3782511777691511</v>
       </c>
       <c r="G1288" t="inlineStr"/>
     </row>
@@ -37809,11 +37809,11 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1289" t="n">
-        <v>0.3026160159006211</v>
+        <v>0.3923299698343685</v>
       </c>
       <c r="G1289" t="inlineStr"/>
     </row>
@@ -37838,11 +37838,11 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1290" t="n">
-        <v>0.2933012457608696</v>
+        <v>0.3921794081728779</v>
       </c>
       <c r="G1290" t="inlineStr"/>
     </row>
@@ -37867,11 +37867,11 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1291" t="n">
-        <v>0.3289745807505176</v>
+        <v>0.4213508721273291</v>
       </c>
       <c r="G1291" t="inlineStr"/>
     </row>
@@ -37896,11 +37896,11 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1292" t="n">
-        <v>0.406837987173913</v>
+        <v>0.4611490424171843</v>
       </c>
       <c r="G1292" t="inlineStr"/>
     </row>
@@ -37925,11 +37925,11 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1293" t="n">
-        <v>0.4429841129296066</v>
+        <v>0.4587180011490684</v>
       </c>
       <c r="G1293" t="inlineStr"/>
     </row>
@@ -37954,11 +37954,11 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1294" t="n">
-        <v>0.4591762382608696</v>
+        <v>0.4390253120186335</v>
       </c>
       <c r="G1294" t="inlineStr"/>
     </row>
@@ -37983,11 +37983,11 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1295" t="n">
-        <v>0.4715875048136647</v>
+        <v>0.4329095805848862</v>
       </c>
       <c r="G1295" t="inlineStr"/>
     </row>
@@ -38012,11 +38012,11 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1296" t="n">
-        <v>0.4716029168271222</v>
+        <v>0.4326596618426501</v>
       </c>
       <c r="G1296" t="inlineStr"/>
     </row>
@@ -38041,11 +38041,11 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1297" t="n">
-        <v>0.470803965926501</v>
+        <v>0.4345865089803312</v>
       </c>
       <c r="G1297" t="inlineStr"/>
     </row>
@@ -38070,11 +38070,11 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1298" t="n">
-        <v>0.2915838564855073</v>
+        <v>0.249364927815735</v>
       </c>
       <c r="G1298" t="inlineStr"/>
     </row>
@@ -38099,11 +38099,11 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1299" t="n">
-        <v>0.2832601204399586</v>
+        <v>0.2487739417339545</v>
       </c>
       <c r="G1299" t="inlineStr"/>
     </row>
@@ -38128,11 +38128,11 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1300" t="n">
-        <v>0.2755213341563147</v>
+        <v>0.2530652439906832</v>
       </c>
       <c r="G1300" t="inlineStr"/>
     </row>
@@ -38157,11 +38157,11 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1301" t="n">
-        <v>0.2636800732039337</v>
+        <v>0.2520244966873706</v>
       </c>
       <c r="G1301" t="inlineStr"/>
     </row>
@@ -38186,11 +38186,11 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1302" t="n">
-        <v>0.2458979150828157</v>
+        <v>0.2420472620652174</v>
       </c>
       <c r="G1302" t="inlineStr"/>
     </row>
@@ -38215,11 +38215,11 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1303" t="n">
-        <v>0.1433079183799172</v>
+        <v>0.1390265949120083</v>
       </c>
       <c r="G1303" t="inlineStr"/>
     </row>
@@ -38244,11 +38244,11 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1304" t="n">
-        <v>0.08437782824534162</v>
+        <v>0.1054993600724638</v>
       </c>
       <c r="G1304" t="inlineStr"/>
     </row>
@@ -38273,11 +38273,11 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1305" t="n">
-        <v>0.07951585552277432</v>
+        <v>0.1038039451449276</v>
       </c>
       <c r="G1305" t="inlineStr"/>
     </row>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1306" t="n">
-        <v>0.08437121531573499</v>
+        <v>0.1070739409886128</v>
       </c>
       <c r="G1306" t="inlineStr"/>
     </row>
@@ -38331,11 +38331,11 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1307" t="n">
-        <v>0.09079759464803311</v>
+        <v>0.1231668874223603</v>
       </c>
       <c r="G1307" t="inlineStr"/>
     </row>
@@ -38360,11 +38360,11 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1308" t="n">
-        <v>0.09708997420807453</v>
+        <v>0.1412372150776398</v>
       </c>
       <c r="G1308" t="inlineStr"/>
     </row>
@@ -38389,11 +38389,11 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1309" t="n">
-        <v>0.1110410980331263</v>
+        <v>0.1692007669099379</v>
       </c>
       <c r="G1309" t="inlineStr"/>
     </row>
@@ -38418,11 +38418,11 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1310" t="n">
-        <v>0.1288483657349896</v>
+        <v>0.2068804444513458</v>
       </c>
       <c r="G1310" t="inlineStr"/>
     </row>
@@ -38447,11 +38447,11 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1311" t="n">
-        <v>0.158674053747412</v>
+        <v>0.2580171088768116</v>
       </c>
       <c r="G1311" t="inlineStr"/>
     </row>
@@ -38476,11 +38476,11 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1312" t="n">
-        <v>0.1813772473602484</v>
+        <v>0.2851473332919255</v>
       </c>
       <c r="G1312" t="inlineStr"/>
     </row>
@@ -38505,11 +38505,11 @@
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1313" t="n">
-        <v>0.2033961201397516</v>
+        <v>0.3035194320652174</v>
       </c>
       <c r="G1313" t="inlineStr"/>
     </row>
@@ -38534,11 +38534,11 @@
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1314" t="n">
-        <v>0.213291362494824</v>
+        <v>0.3023068094824017</v>
       </c>
       <c r="G1314" t="inlineStr"/>
     </row>
@@ -38563,11 +38563,11 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1315" t="n">
-        <v>0.2102540776449275</v>
+        <v>0.2884517837888199</v>
       </c>
       <c r="G1315" t="inlineStr"/>
     </row>
@@ -38592,11 +38592,11 @@
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1316" t="n">
-        <v>0.2711637250362319</v>
+        <v>0.3202756061335404</v>
       </c>
       <c r="G1316" t="inlineStr"/>
     </row>
@@ -38621,11 +38621,11 @@
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1317" t="n">
-        <v>0.2833785115372671</v>
+        <v>0.3090537781055901</v>
       </c>
       <c r="G1317" t="inlineStr"/>
     </row>
@@ -38650,11 +38650,11 @@
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1318" t="n">
-        <v>0.301097233436853</v>
+        <v>0.2863281314699793</v>
       </c>
       <c r="G1318" t="inlineStr"/>
     </row>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1319" t="n">
-        <v>0.2966857664337474</v>
+        <v>0.2697322174223603</v>
       </c>
       <c r="G1319" t="inlineStr"/>
     </row>
@@ -38708,11 +38708,11 @@
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1320" t="n">
-        <v>0.2951118066511387</v>
+        <v>0.2602671666666667</v>
       </c>
       <c r="G1320" t="inlineStr"/>
     </row>
@@ -38737,11 +38737,11 @@
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1321" t="n">
-        <v>0.2884421294254658</v>
+        <v>0.2544692149482402</v>
       </c>
       <c r="G1321" t="inlineStr"/>
     </row>
@@ -38766,11 +38766,11 @@
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1322" t="n">
-        <v>0.3901544473992674</v>
+        <v>0.3754339800680272</v>
       </c>
       <c r="G1322" t="inlineStr"/>
     </row>
@@ -38795,11 +38795,11 @@
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1323" t="n">
-        <v>0.3864457488383045</v>
+        <v>0.3775891453270538</v>
       </c>
       <c r="G1323" t="inlineStr"/>
     </row>
@@ -38824,11 +38824,11 @@
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1324" t="n">
-        <v>0.3751766605599163</v>
+        <v>0.3797797827629513</v>
       </c>
       <c r="G1324" t="inlineStr"/>
     </row>
@@ -38853,11 +38853,11 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1325" t="n">
-        <v>0.3722448224123496</v>
+        <v>0.3811405653322868</v>
       </c>
       <c r="G1325" t="inlineStr"/>
     </row>
@@ -38882,11 +38882,11 @@
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1326" t="n">
-        <v>0.3599849695970696</v>
+        <v>0.3784693585347985</v>
       </c>
       <c r="G1326" t="inlineStr"/>
     </row>
@@ -38911,11 +38911,11 @@
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1327" t="n">
-        <v>0.3513048251072737</v>
+        <v>0.3683908329199372</v>
       </c>
       <c r="G1327" t="inlineStr"/>
     </row>
@@ -38940,11 +38940,11 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1328" t="n">
-        <v>0.2889515946572475</v>
+        <v>0.3069406053741496</v>
       </c>
       <c r="G1328" t="inlineStr"/>
     </row>
@@ -38969,11 +38969,11 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1329" t="n">
-        <v>0.1977186917948718</v>
+        <v>0.2243117761381476</v>
       </c>
       <c r="G1329" t="inlineStr"/>
     </row>
@@ -38998,11 +38998,11 @@
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1330" t="n">
-        <v>0.1619827598796442</v>
+        <v>0.2025243320355835</v>
       </c>
       <c r="G1330" t="inlineStr"/>
     </row>
@@ -39027,11 +39027,11 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1331" t="n">
-        <v>0.1617567075614861</v>
+        <v>0.2098579798273155</v>
       </c>
       <c r="G1331" t="inlineStr"/>
     </row>
@@ -39056,11 +39056,11 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1332" t="n">
-        <v>0.170116313270539</v>
+        <v>0.2182257208948195</v>
       </c>
       <c r="G1332" t="inlineStr"/>
     </row>
@@ -39085,11 +39085,11 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1333" t="n">
-        <v>0.1779311094557823</v>
+        <v>0.2302285163631606</v>
       </c>
       <c r="G1333" t="inlineStr"/>
     </row>
@@ -39114,11 +39114,11 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1334" t="n">
-        <v>0.1823352633385662</v>
+        <v>0.2384591140450026</v>
       </c>
       <c r="G1334" t="inlineStr"/>
     </row>
@@ -39143,11 +39143,11 @@
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1335" t="n">
-        <v>0.1851430798587127</v>
+        <v>0.2525382874672946</v>
       </c>
       <c r="G1335" t="inlineStr"/>
     </row>
@@ -39172,11 +39172,11 @@
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1336" t="n">
-        <v>0.1998129569335427</v>
+        <v>0.2525391729618001</v>
       </c>
       <c r="G1336" t="inlineStr"/>
     </row>
@@ -39201,11 +39201,11 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1337" t="n">
-        <v>0.1927051302564102</v>
+        <v>0.2445385163369963</v>
       </c>
       <c r="G1337" t="inlineStr"/>
     </row>
@@ -39230,11 +39230,11 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1338" t="n">
-        <v>0.2197244736316065</v>
+        <v>0.2847600767032967</v>
       </c>
       <c r="G1338" t="inlineStr"/>
     </row>
@@ -39259,11 +39259,11 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1339" t="n">
-        <v>0.2826378953584511</v>
+        <v>0.3462158962794349</v>
       </c>
       <c r="G1339" t="inlineStr"/>
     </row>
@@ -39288,11 +39288,11 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1340" t="n">
-        <v>0.3311153961276819</v>
+        <v>0.3659848259445317</v>
       </c>
       <c r="G1340" t="inlineStr"/>
     </row>
@@ -39317,11 +39317,11 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1341" t="n">
-        <v>0.3654551780900052</v>
+        <v>0.3721688094610152</v>
       </c>
       <c r="G1341" t="inlineStr"/>
     </row>
@@ -39346,11 +39346,11 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1342" t="n">
-        <v>0.3826310999790686</v>
+        <v>0.3724740133699633</v>
       </c>
       <c r="G1342" t="inlineStr"/>
     </row>
@@ -39375,11 +39375,11 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1343" t="n">
-        <v>0.398164711826269</v>
+        <v>0.3732058835635793</v>
       </c>
       <c r="G1343" t="inlineStr"/>
     </row>
@@ -39404,11 +39404,11 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1344" t="n">
-        <v>0.405168334374673</v>
+        <v>0.3754008628048142</v>
       </c>
       <c r="G1344" t="inlineStr"/>
     </row>
@@ -39433,11 +39433,11 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1345" t="n">
-        <v>0.4016192964154893</v>
+        <v>0.3754337961904762</v>
       </c>
       <c r="G1345" t="inlineStr"/>
     </row>
@@ -39462,7 +39462,7 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1346" t="n">
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1347" t="n">
@@ -39520,7 +39520,7 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1348" t="n">
@@ -39549,7 +39549,7 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1349" t="n">
@@ -39578,7 +39578,7 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1350" t="n">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1351" t="n">
@@ -39636,7 +39636,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1352" t="n">
@@ -39665,7 +39665,7 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1353" t="n">
@@ -39694,7 +39694,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1354" t="n">
@@ -39723,7 +39723,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1355" t="n">
@@ -39752,7 +39752,7 @@
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1356" t="n">
@@ -39781,7 +39781,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1357" t="n">
@@ -39810,7 +39810,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1358" t="n">
@@ -39839,7 +39839,7 @@
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1359" t="n">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1360" t="n">
@@ -39897,7 +39897,7 @@
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1361" t="n">
@@ -39926,7 +39926,7 @@
       </c>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1362" t="n">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1363" t="n">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1364" t="n">
@@ -40013,7 +40013,7 @@
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1365" t="n">
@@ -40042,7 +40042,7 @@
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1366" t="n">
@@ -40071,7 +40071,7 @@
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1367" t="n">
@@ -40100,7 +40100,7 @@
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1368" t="n">
@@ -40129,7 +40129,7 @@
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1369" t="n">
@@ -40158,7 +40158,7 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1370" t="n">
@@ -40187,7 +40187,7 @@
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1371" t="n">
@@ -40216,7 +40216,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1372" t="n">
@@ -40245,7 +40245,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1373" t="n">
@@ -40274,7 +40274,7 @@
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1374" t="n">
@@ -40303,7 +40303,7 @@
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1375" t="n">
@@ -40332,7 +40332,7 @@
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1376" t="n">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1377" t="n">
@@ -40390,7 +40390,7 @@
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1378" t="n">
@@ -40419,7 +40419,7 @@
       </c>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1379" t="n">
@@ -40448,7 +40448,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1380" t="n">
@@ -40477,7 +40477,7 @@
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1381" t="n">
@@ -40506,7 +40506,7 @@
       </c>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1382" t="n">
@@ -40535,7 +40535,7 @@
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1383" t="n">
@@ -40564,7 +40564,7 @@
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1384" t="n">
@@ -40593,7 +40593,7 @@
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1385" t="n">
@@ -40622,7 +40622,7 @@
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1386" t="n">
@@ -40651,7 +40651,7 @@
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1387" t="n">
@@ -40680,7 +40680,7 @@
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1388" t="n">
@@ -40709,7 +40709,7 @@
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1389" t="n">
@@ -40738,7 +40738,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1390" t="n">
@@ -40767,7 +40767,7 @@
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1391" t="n">
@@ -40796,7 +40796,7 @@
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1392" t="n">
@@ -40825,7 +40825,7 @@
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1393" t="n">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1394" t="n">
@@ -40883,7 +40883,7 @@
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1395" t="n">
@@ -40912,7 +40912,7 @@
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1396" t="n">
@@ -40941,7 +40941,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1397" t="n">
@@ -40970,7 +40970,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1398" t="n">
@@ -40999,7 +40999,7 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1399" t="n">
@@ -41028,7 +41028,7 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1400" t="n">
@@ -41057,7 +41057,7 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1401" t="n">
@@ -41086,7 +41086,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1402" t="n">
@@ -41115,7 +41115,7 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1403" t="n">
@@ -41144,7 +41144,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1404" t="n">
@@ -41173,7 +41173,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1405" t="n">
@@ -41202,7 +41202,7 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1406" t="n">
@@ -41231,7 +41231,7 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1407" t="n">
@@ -41260,7 +41260,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1408" t="n">
@@ -41289,7 +41289,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1409" t="n">
@@ -41318,7 +41318,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1410" t="n">
@@ -41347,7 +41347,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1411" t="n">
@@ -41376,7 +41376,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1412" t="n">
@@ -41405,7 +41405,7 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1413" t="n">
@@ -41434,7 +41434,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1414" t="n">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1415" t="n">
@@ -41492,7 +41492,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1416" t="n">
@@ -41521,7 +41521,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1417" t="n">
@@ -41550,7 +41550,7 @@
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1418" t="n">
@@ -41579,7 +41579,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1419" t="n">
@@ -41608,7 +41608,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1420" t="n">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1421" t="n">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1422" t="n">
@@ -41695,7 +41695,7 @@
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1423" t="n">
@@ -41724,7 +41724,7 @@
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1424" t="n">
@@ -41753,7 +41753,7 @@
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1425" t="n">
@@ -41782,7 +41782,7 @@
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1426" t="n">
@@ -41811,7 +41811,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1427" t="n">
@@ -41840,7 +41840,7 @@
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1428" t="n">
@@ -41869,7 +41869,7 @@
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1429" t="n">
@@ -41898,7 +41898,7 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1430" t="n">
@@ -41927,7 +41927,7 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1431" t="n">
@@ -41956,7 +41956,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1432" t="n">
@@ -41985,7 +41985,7 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1433" t="n">
@@ -42014,7 +42014,7 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1434" t="n">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1435" t="n">
@@ -42072,7 +42072,7 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1436" t="n">
@@ -42101,7 +42101,7 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1437" t="n">
@@ -42130,7 +42130,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1438" t="n">
@@ -42159,7 +42159,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1439" t="n">
@@ -42188,7 +42188,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1440" t="n">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>LandWind_New</t>
+          <t>LandWind_New_C8</t>
         </is>
       </c>
       <c r="F1441" t="n">
@@ -42231,7 +42231,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1442" t="n">
@@ -42260,7 +42260,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
@@ -42275,7 +42275,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1443" t="n">
@@ -42289,7 +42289,7 @@
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
@@ -42304,7 +42304,7 @@
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1444" t="n">
@@ -42318,7 +42318,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
@@ -42333,7 +42333,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1445" t="n">
@@ -42347,7 +42347,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -42362,7 +42362,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1446" t="n">
@@ -42376,7 +42376,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -42391,7 +42391,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1447" t="n">
@@ -42405,7 +42405,7 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
@@ -42420,7 +42420,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1448" t="n">
@@ -42434,7 +42434,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -42449,7 +42449,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1449" t="n">
@@ -42463,7 +42463,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -42478,7 +42478,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1450" t="n">
@@ -42492,7 +42492,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -42507,7 +42507,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1451" t="n">
@@ -42521,7 +42521,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -42536,7 +42536,7 @@
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1452" t="n">
@@ -42550,7 +42550,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -42565,7 +42565,7 @@
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1453" t="n">
@@ -42579,7 +42579,7 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
@@ -42594,7 +42594,7 @@
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1454" t="n">
@@ -42608,7 +42608,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
@@ -42623,7 +42623,7 @@
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1455" t="n">
@@ -42637,7 +42637,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
@@ -42652,7 +42652,7 @@
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1456" t="n">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
@@ -42681,7 +42681,7 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1457" t="n">
@@ -42695,7 +42695,7 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
@@ -42710,7 +42710,7 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1458" t="n">
@@ -42724,7 +42724,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1459" t="n">
@@ -42753,7 +42753,7 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
@@ -42768,7 +42768,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1460" t="n">
@@ -42782,7 +42782,7 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1461" t="n">
@@ -42811,7 +42811,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
@@ -42826,7 +42826,7 @@
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1462" t="n">
@@ -42840,7 +42840,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
@@ -42855,7 +42855,7 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1463" t="n">
@@ -42869,7 +42869,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -42884,7 +42884,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1464" t="n">
@@ -42898,7 +42898,7 @@
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
@@ -42913,7 +42913,7 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1465" t="n">
@@ -42927,7 +42927,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
@@ -42942,7 +42942,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1466" t="n">
@@ -42956,7 +42956,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
@@ -42971,7 +42971,7 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1467" t="n">
@@ -42985,7 +42985,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
@@ -43000,7 +43000,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1468" t="n">
@@ -43014,7 +43014,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
@@ -43029,7 +43029,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1469" t="n">
@@ -43043,7 +43043,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
@@ -43058,7 +43058,7 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1470" t="n">
@@ -43072,7 +43072,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -43087,7 +43087,7 @@
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1471" t="n">
@@ -43101,7 +43101,7 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
@@ -43116,7 +43116,7 @@
       </c>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1472" t="n">
@@ -43130,7 +43130,7 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
@@ -43145,7 +43145,7 @@
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1473" t="n">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -43174,7 +43174,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1474" t="n">
@@ -43188,7 +43188,7 @@
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
@@ -43203,7 +43203,7 @@
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1475" t="n">
@@ -43217,7 +43217,7 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
@@ -43232,7 +43232,7 @@
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1476" t="n">
@@ -43246,7 +43246,7 @@
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1477" t="n">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
@@ -43290,7 +43290,7 @@
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1478" t="n">
@@ -43304,7 +43304,7 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
@@ -43319,7 +43319,7 @@
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1479" t="n">
@@ -43333,7 +43333,7 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -43348,7 +43348,7 @@
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1480" t="n">
@@ -43362,7 +43362,7 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
@@ -43377,7 +43377,7 @@
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1481" t="n">
@@ -43391,7 +43391,7 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
@@ -43406,7 +43406,7 @@
       </c>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1482" t="n">
@@ -43420,7 +43420,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
@@ -43435,7 +43435,7 @@
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1483" t="n">
@@ -43449,7 +43449,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
@@ -43464,7 +43464,7 @@
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1484" t="n">
@@ -43478,7 +43478,7 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
@@ -43493,7 +43493,7 @@
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1485" t="n">
@@ -43507,7 +43507,7 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
@@ -43522,7 +43522,7 @@
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1486" t="n">
@@ -43536,7 +43536,7 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
@@ -43551,7 +43551,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1487" t="n">
@@ -43565,7 +43565,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -43580,7 +43580,7 @@
       </c>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1488" t="n">
@@ -43594,7 +43594,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
@@ -43609,7 +43609,7 @@
       </c>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1489" t="n">
@@ -43623,7 +43623,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
@@ -43638,7 +43638,7 @@
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1490" t="n">
@@ -43652,7 +43652,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
@@ -43667,7 +43667,7 @@
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1491" t="n">
@@ -43681,7 +43681,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -43696,7 +43696,7 @@
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1492" t="n">
@@ -43710,7 +43710,7 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
@@ -43725,7 +43725,7 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1493" t="n">
@@ -43739,7 +43739,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -43754,7 +43754,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1494" t="n">
@@ -43768,7 +43768,7 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
@@ -43783,7 +43783,7 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1495" t="n">
@@ -43797,7 +43797,7 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
@@ -43812,7 +43812,7 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1496" t="n">
@@ -43826,7 +43826,7 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
@@ -43841,7 +43841,7 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1497" t="n">
@@ -43855,7 +43855,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -43870,7 +43870,7 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1498" t="n">
@@ -43884,7 +43884,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
@@ -43899,7 +43899,7 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1499" t="n">
@@ -43913,7 +43913,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
@@ -43928,7 +43928,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1500" t="n">
@@ -43942,7 +43942,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -43957,7 +43957,7 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1501" t="n">
@@ -43971,7 +43971,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -43986,7 +43986,7 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1502" t="n">
@@ -44000,7 +44000,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1503" t="n">
@@ -44029,7 +44029,7 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
@@ -44044,7 +44044,7 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1504" t="n">
@@ -44058,7 +44058,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
@@ -44073,7 +44073,7 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1505" t="n">
@@ -44087,7 +44087,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -44102,7 +44102,7 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1506" t="n">
@@ -44116,7 +44116,7 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
@@ -44131,7 +44131,7 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1507" t="n">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -44160,7 +44160,7 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1508" t="n">
@@ -44174,7 +44174,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -44189,7 +44189,7 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1509" t="n">
@@ -44203,7 +44203,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
@@ -44218,7 +44218,7 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1510" t="n">
@@ -44232,7 +44232,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -44247,7 +44247,7 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1511" t="n">
@@ -44261,7 +44261,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -44276,7 +44276,7 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1512" t="n">
@@ -44290,7 +44290,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
@@ -44305,7 +44305,7 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1513" t="n">
@@ -44319,7 +44319,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
@@ -44334,7 +44334,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1514" t="n">
@@ -44348,7 +44348,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -44363,7 +44363,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1515" t="n">
@@ -44377,7 +44377,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
@@ -44392,7 +44392,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1516" t="n">
@@ -44406,7 +44406,7 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
@@ -44421,7 +44421,7 @@
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1517" t="n">
@@ -44435,7 +44435,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
@@ -44450,7 +44450,7 @@
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1518" t="n">
@@ -44464,7 +44464,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
@@ -44479,7 +44479,7 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1519" t="n">
@@ -44493,7 +44493,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
@@ -44508,7 +44508,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1520" t="n">
@@ -44522,7 +44522,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
@@ -44537,7 +44537,7 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1521" t="n">
@@ -44551,7 +44551,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
@@ -44566,7 +44566,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1522" t="n">
@@ -44580,7 +44580,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1523" t="n">
@@ -44609,7 +44609,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
@@ -44624,7 +44624,7 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1524" t="n">
@@ -44638,7 +44638,7 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
@@ -44653,7 +44653,7 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1525" t="n">
@@ -44667,7 +44667,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
@@ -44682,7 +44682,7 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1526" t="n">
@@ -44696,7 +44696,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
@@ -44711,7 +44711,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1527" t="n">
@@ -44725,7 +44725,7 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
@@ -44740,7 +44740,7 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1528" t="n">
@@ -44754,7 +44754,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
@@ -44769,7 +44769,7 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1529" t="n">
@@ -44783,7 +44783,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
@@ -44798,7 +44798,7 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1530" t="n">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
@@ -44827,7 +44827,7 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1531" t="n">
@@ -44841,7 +44841,7 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
@@ -44856,7 +44856,7 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1532" t="n">
@@ -44870,7 +44870,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
@@ -44885,7 +44885,7 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1533" t="n">
@@ -44899,7 +44899,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
@@ -44914,7 +44914,7 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1534" t="n">
@@ -44928,7 +44928,7 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
@@ -44943,7 +44943,7 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1535" t="n">
@@ -44957,7 +44957,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
@@ -44972,7 +44972,7 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1536" t="n">
@@ -44986,7 +44986,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -45001,13 +45001,2797 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>OffshoreWind_New_C6</t>
         </is>
       </c>
       <c r="F1537" t="n">
         <v>0.3623594843281201</v>
       </c>
       <c r="G1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1538" t="n">
+        <v>0.4522727234814815</v>
+      </c>
+      <c r="G1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1539" t="n">
+        <v>0.4427999054973544</v>
+      </c>
+      <c r="G1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>1538</v>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1540" t="n">
+        <v>0.4406134263915343</v>
+      </c>
+      <c r="G1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1541" t="n">
+        <v>0.4327880055502645</v>
+      </c>
+      <c r="G1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1542" t="n">
+        <v>0.4415986533862433</v>
+      </c>
+      <c r="G1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>1541</v>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1543" t="n">
+        <v>0.4293113037989418</v>
+      </c>
+      <c r="G1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>1542</v>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1544" t="n">
+        <v>0.411217455978836</v>
+      </c>
+      <c r="G1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1545" t="n">
+        <v>0.3182898283492064</v>
+      </c>
+      <c r="G1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="n">
+        <v>1544</v>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1546" t="n">
+        <v>0.2642563076931217</v>
+      </c>
+      <c r="G1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="n">
+        <v>1545</v>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1547" t="n">
+        <v>0.2618085132222222</v>
+      </c>
+      <c r="G1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="n">
+        <v>1546</v>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1548" t="n">
+        <v>0.2700501169100529</v>
+      </c>
+      <c r="G1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>T12</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1549" t="n">
+        <v>0.2799226436613756</v>
+      </c>
+      <c r="G1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>T13</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1550" t="n">
+        <v>0.2884740253068783</v>
+      </c>
+      <c r="G1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>T14</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1551" t="n">
+        <v>0.2873400783544974</v>
+      </c>
+      <c r="G1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1552" t="n">
+        <v>0.2896402063280423</v>
+      </c>
+      <c r="G1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>T16</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1553" t="n">
+        <v>0.2918145378095238</v>
+      </c>
+      <c r="G1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>T17</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1554" t="n">
+        <v>0.3608672445502645</v>
+      </c>
+      <c r="G1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>T18</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1555" t="n">
+        <v>0.4037404768518518</v>
+      </c>
+      <c r="G1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>T19</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1556" t="n">
+        <v>0.4234543122380952</v>
+      </c>
+      <c r="G1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1557" t="n">
+        <v>0.4341233595079365</v>
+      </c>
+      <c r="G1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>T21</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1558" t="n">
+        <v>0.4335856413227514</v>
+      </c>
+      <c r="G1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>T22</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1559" t="n">
+        <v>0.4416437906349206</v>
+      </c>
+      <c r="G1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>T23</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1560" t="n">
+        <v>0.4505068967830689</v>
+      </c>
+      <c r="G1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>T24</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1561" t="n">
+        <v>0.4473125922857142</v>
+      </c>
+      <c r="G1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1562" t="n">
+        <v>0.4318462415838509</v>
+      </c>
+      <c r="G1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1563" t="n">
+        <v>0.4404327767753623</v>
+      </c>
+      <c r="G1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1564" t="n">
+        <v>0.4382519567650103</v>
+      </c>
+      <c r="G1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1565" t="n">
+        <v>0.4301206654710146</v>
+      </c>
+      <c r="G1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1566" t="n">
+        <v>0.4249982692028986</v>
+      </c>
+      <c r="G1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1567" t="n">
+        <v>0.3746186420548654</v>
+      </c>
+      <c r="G1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1568" t="n">
+        <v>0.271725676578675</v>
+      </c>
+      <c r="G1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1569" t="n">
+        <v>0.254349246247412</v>
+      </c>
+      <c r="G1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1570" t="n">
+        <v>0.2606085792857143</v>
+      </c>
+      <c r="G1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1571" t="n">
+        <v>0.2756636827587992</v>
+      </c>
+      <c r="G1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1572" t="n">
+        <v>0.2940447226345755</v>
+      </c>
+      <c r="G1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>T12</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1573" t="n">
+        <v>0.3090266564182195</v>
+      </c>
+      <c r="G1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>T13</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1574" t="n">
+        <v>0.3270299599016563</v>
+      </c>
+      <c r="G1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>T14</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1575" t="n">
+        <v>0.3602657630020704</v>
+      </c>
+      <c r="G1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1576" t="n">
+        <v>0.3782511777691511</v>
+      </c>
+      <c r="G1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>T16</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1577" t="n">
+        <v>0.3923299698343685</v>
+      </c>
+      <c r="G1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>T17</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1578" t="n">
+        <v>0.3921794081728779</v>
+      </c>
+      <c r="G1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>T18</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1579" t="n">
+        <v>0.4213508721273291</v>
+      </c>
+      <c r="G1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>T19</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1580" t="n">
+        <v>0.4611490424171843</v>
+      </c>
+      <c r="G1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1581" t="n">
+        <v>0.4587180011490684</v>
+      </c>
+      <c r="G1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>T21</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1582" t="n">
+        <v>0.4390253120186335</v>
+      </c>
+      <c r="G1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>T22</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1583" t="n">
+        <v>0.4329095805848862</v>
+      </c>
+      <c r="G1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>T23</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1584" t="n">
+        <v>0.4326596618426501</v>
+      </c>
+      <c r="G1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>T24</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1585" t="n">
+        <v>0.4345865089803312</v>
+      </c>
+      <c r="G1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1586" t="n">
+        <v>0.249364927815735</v>
+      </c>
+      <c r="G1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1587" t="n">
+        <v>0.2487739417339545</v>
+      </c>
+      <c r="G1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1588" t="n">
+        <v>0.2530652439906832</v>
+      </c>
+      <c r="G1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1589" t="n">
+        <v>0.2520244966873706</v>
+      </c>
+      <c r="G1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1590" t="n">
+        <v>0.2420472620652174</v>
+      </c>
+      <c r="G1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1591" t="n">
+        <v>0.1390265949120083</v>
+      </c>
+      <c r="G1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1592" t="n">
+        <v>0.1054993600724638</v>
+      </c>
+      <c r="G1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1593" t="n">
+        <v>0.1038039451449276</v>
+      </c>
+      <c r="G1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1594" t="n">
+        <v>0.1070739409886128</v>
+      </c>
+      <c r="G1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="n">
+        <v>1593</v>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1595" t="n">
+        <v>0.1231668874223603</v>
+      </c>
+      <c r="G1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1596" t="n">
+        <v>0.1412372150776398</v>
+      </c>
+      <c r="G1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>T12</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1597" t="n">
+        <v>0.1692007669099379</v>
+      </c>
+      <c r="G1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>T13</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1598" t="n">
+        <v>0.2068804444513458</v>
+      </c>
+      <c r="G1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>T14</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1599" t="n">
+        <v>0.2580171088768116</v>
+      </c>
+      <c r="G1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1600" t="n">
+        <v>0.2851473332919255</v>
+      </c>
+      <c r="G1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>T16</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1601" t="n">
+        <v>0.3035194320652174</v>
+      </c>
+      <c r="G1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>T17</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1602" t="n">
+        <v>0.3023068094824017</v>
+      </c>
+      <c r="G1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>T18</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1603" t="n">
+        <v>0.2884517837888199</v>
+      </c>
+      <c r="G1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="n">
+        <v>1602</v>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>T19</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1604" t="n">
+        <v>0.3202756061335404</v>
+      </c>
+      <c r="G1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1605" t="n">
+        <v>0.3090537781055901</v>
+      </c>
+      <c r="G1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>T21</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1606" t="n">
+        <v>0.2863281314699793</v>
+      </c>
+      <c r="G1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>T22</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1607" t="n">
+        <v>0.2697322174223603</v>
+      </c>
+      <c r="G1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>T23</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1608" t="n">
+        <v>0.2602671666666667</v>
+      </c>
+      <c r="G1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>T24</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1609" t="n">
+        <v>0.2544692149482402</v>
+      </c>
+      <c r="G1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1610" t="n">
+        <v>0.3754339800680272</v>
+      </c>
+      <c r="G1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1611" t="n">
+        <v>0.3775891453270538</v>
+      </c>
+      <c r="G1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1612" t="n">
+        <v>0.3797797827629513</v>
+      </c>
+      <c r="G1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1613" t="n">
+        <v>0.3811405653322868</v>
+      </c>
+      <c r="G1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1614" t="n">
+        <v>0.3784693585347985</v>
+      </c>
+      <c r="G1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1615" t="n">
+        <v>0.3683908329199372</v>
+      </c>
+      <c r="G1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1616" t="n">
+        <v>0.3069406053741496</v>
+      </c>
+      <c r="G1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="1" t="n">
+        <v>1615</v>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1617" t="n">
+        <v>0.2243117761381476</v>
+      </c>
+      <c r="G1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1618" t="n">
+        <v>0.2025243320355835</v>
+      </c>
+      <c r="G1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1619" t="n">
+        <v>0.2098579798273155</v>
+      </c>
+      <c r="G1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="1" t="n">
+        <v>1618</v>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1620" t="n">
+        <v>0.2182257208948195</v>
+      </c>
+      <c r="G1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="1" t="n">
+        <v>1619</v>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>T12</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1621" t="n">
+        <v>0.2302285163631606</v>
+      </c>
+      <c r="G1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>T13</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1622" t="n">
+        <v>0.2384591140450026</v>
+      </c>
+      <c r="G1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="1" t="n">
+        <v>1621</v>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>T14</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1623" t="n">
+        <v>0.2525382874672946</v>
+      </c>
+      <c r="G1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="1" t="n">
+        <v>1622</v>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1624" t="n">
+        <v>0.2525391729618001</v>
+      </c>
+      <c r="G1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>T16</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1625" t="n">
+        <v>0.2445385163369963</v>
+      </c>
+      <c r="G1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>T17</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1626" t="n">
+        <v>0.2847600767032967</v>
+      </c>
+      <c r="G1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="1" t="n">
+        <v>1625</v>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>T18</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1627" t="n">
+        <v>0.3462158962794349</v>
+      </c>
+      <c r="G1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="1" t="n">
+        <v>1626</v>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>T19</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1628" t="n">
+        <v>0.3659848259445317</v>
+      </c>
+      <c r="G1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="1" t="n">
+        <v>1627</v>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1629" t="n">
+        <v>0.3721688094610152</v>
+      </c>
+      <c r="G1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="1" t="n">
+        <v>1628</v>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>T21</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1630" t="n">
+        <v>0.3724740133699633</v>
+      </c>
+      <c r="G1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="1" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>T22</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1631" t="n">
+        <v>0.3732058835635793</v>
+      </c>
+      <c r="G1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>T23</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1632" t="n">
+        <v>0.3754008628048142</v>
+      </c>
+      <c r="G1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>T24</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>WND_WT_Existing</t>
+        </is>
+      </c>
+      <c r="F1633" t="n">
+        <v>0.3754337961904762</v>
+      </c>
+      <c r="G1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CreateBaseDeck/Debug.xlsx
+++ b/CreateBaseDeck/Debug.xlsx
@@ -47818,7 +47818,7 @@
         </is>
       </c>
       <c r="F1634" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1634" t="inlineStr"/>
     </row>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="F1635" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1635" t="inlineStr"/>
     </row>
@@ -47876,7 +47876,7 @@
         </is>
       </c>
       <c r="F1636" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1636" t="inlineStr"/>
     </row>
@@ -47905,7 +47905,7 @@
         </is>
       </c>
       <c r="F1637" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1637" t="inlineStr"/>
     </row>
@@ -47934,7 +47934,7 @@
         </is>
       </c>
       <c r="F1638" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1638" t="inlineStr"/>
     </row>
@@ -47963,7 +47963,7 @@
         </is>
       </c>
       <c r="F1639" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1639" t="inlineStr"/>
     </row>
@@ -47992,7 +47992,7 @@
         </is>
       </c>
       <c r="F1640" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1640" t="inlineStr"/>
     </row>
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="F1641" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1641" t="inlineStr"/>
     </row>
@@ -48050,7 +48050,7 @@
         </is>
       </c>
       <c r="F1642" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1642" t="inlineStr"/>
     </row>
@@ -48079,7 +48079,7 @@
         </is>
       </c>
       <c r="F1643" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1643" t="inlineStr"/>
     </row>
@@ -48108,7 +48108,7 @@
         </is>
       </c>
       <c r="F1644" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1644" t="inlineStr"/>
     </row>
@@ -48137,7 +48137,7 @@
         </is>
       </c>
       <c r="F1645" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1645" t="inlineStr"/>
     </row>
@@ -48166,7 +48166,7 @@
         </is>
       </c>
       <c r="F1646" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1646" t="inlineStr"/>
     </row>
@@ -48195,7 +48195,7 @@
         </is>
       </c>
       <c r="F1647" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1647" t="inlineStr"/>
     </row>
@@ -48224,7 +48224,7 @@
         </is>
       </c>
       <c r="F1648" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1648" t="inlineStr"/>
     </row>
@@ -48253,7 +48253,7 @@
         </is>
       </c>
       <c r="F1649" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1649" t="inlineStr"/>
     </row>
@@ -48282,7 +48282,7 @@
         </is>
       </c>
       <c r="F1650" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1650" t="inlineStr"/>
     </row>
@@ -48311,7 +48311,7 @@
         </is>
       </c>
       <c r="F1651" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1651" t="inlineStr"/>
     </row>
@@ -48340,7 +48340,7 @@
         </is>
       </c>
       <c r="F1652" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1652" t="inlineStr"/>
     </row>
@@ -48369,7 +48369,7 @@
         </is>
       </c>
       <c r="F1653" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1653" t="inlineStr"/>
     </row>
@@ -48398,7 +48398,7 @@
         </is>
       </c>
       <c r="F1654" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1654" t="inlineStr"/>
     </row>
@@ -48427,7 +48427,7 @@
         </is>
       </c>
       <c r="F1655" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1655" t="inlineStr"/>
     </row>
@@ -48456,7 +48456,7 @@
         </is>
       </c>
       <c r="F1656" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1656" t="inlineStr"/>
     </row>
@@ -48485,7 +48485,7 @@
         </is>
       </c>
       <c r="F1657" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1657" t="inlineStr"/>
     </row>
@@ -48514,7 +48514,7 @@
         </is>
       </c>
       <c r="F1658" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1658" t="inlineStr"/>
     </row>
@@ -48543,7 +48543,7 @@
         </is>
       </c>
       <c r="F1659" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1659" t="inlineStr"/>
     </row>
@@ -48572,7 +48572,7 @@
         </is>
       </c>
       <c r="F1660" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1660" t="inlineStr"/>
     </row>
@@ -48601,7 +48601,7 @@
         </is>
       </c>
       <c r="F1661" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1661" t="inlineStr"/>
     </row>
@@ -48630,7 +48630,7 @@
         </is>
       </c>
       <c r="F1662" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1662" t="inlineStr"/>
     </row>
@@ -48659,7 +48659,7 @@
         </is>
       </c>
       <c r="F1663" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1663" t="inlineStr"/>
     </row>
@@ -48688,7 +48688,7 @@
         </is>
       </c>
       <c r="F1664" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1664" t="inlineStr"/>
     </row>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="F1665" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1665" t="inlineStr"/>
     </row>
@@ -48746,7 +48746,7 @@
         </is>
       </c>
       <c r="F1666" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1666" t="inlineStr"/>
     </row>
@@ -48775,7 +48775,7 @@
         </is>
       </c>
       <c r="F1667" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1667" t="inlineStr"/>
     </row>
@@ -48804,7 +48804,7 @@
         </is>
       </c>
       <c r="F1668" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1668" t="inlineStr"/>
     </row>
@@ -48833,7 +48833,7 @@
         </is>
       </c>
       <c r="F1669" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1669" t="inlineStr"/>
     </row>
@@ -48862,7 +48862,7 @@
         </is>
       </c>
       <c r="F1670" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1670" t="inlineStr"/>
     </row>
@@ -48891,7 +48891,7 @@
         </is>
       </c>
       <c r="F1671" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1671" t="inlineStr"/>
     </row>
@@ -48920,7 +48920,7 @@
         </is>
       </c>
       <c r="F1672" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1672" t="inlineStr"/>
     </row>
@@ -48949,7 +48949,7 @@
         </is>
       </c>
       <c r="F1673" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1673" t="inlineStr"/>
     </row>
@@ -48978,7 +48978,7 @@
         </is>
       </c>
       <c r="F1674" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1674" t="inlineStr"/>
     </row>
@@ -49007,7 +49007,7 @@
         </is>
       </c>
       <c r="F1675" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1675" t="inlineStr"/>
     </row>
@@ -49036,7 +49036,7 @@
         </is>
       </c>
       <c r="F1676" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1676" t="inlineStr"/>
     </row>
@@ -49065,7 +49065,7 @@
         </is>
       </c>
       <c r="F1677" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1677" t="inlineStr"/>
     </row>
@@ -49094,7 +49094,7 @@
         </is>
       </c>
       <c r="F1678" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1678" t="inlineStr"/>
     </row>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="F1679" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1679" t="inlineStr"/>
     </row>
@@ -49152,7 +49152,7 @@
         </is>
       </c>
       <c r="F1680" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1680" t="inlineStr"/>
     </row>
@@ -49181,7 +49181,7 @@
         </is>
       </c>
       <c r="F1681" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1681" t="inlineStr"/>
     </row>
@@ -49210,7 +49210,7 @@
         </is>
       </c>
       <c r="F1682" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1682" t="inlineStr"/>
     </row>
@@ -49239,7 +49239,7 @@
         </is>
       </c>
       <c r="F1683" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1683" t="inlineStr"/>
     </row>
@@ -49268,7 +49268,7 @@
         </is>
       </c>
       <c r="F1684" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1684" t="inlineStr"/>
     </row>
@@ -49297,7 +49297,7 @@
         </is>
       </c>
       <c r="F1685" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1685" t="inlineStr"/>
     </row>
@@ -49326,7 +49326,7 @@
         </is>
       </c>
       <c r="F1686" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1686" t="inlineStr"/>
     </row>
@@ -49355,7 +49355,7 @@
         </is>
       </c>
       <c r="F1687" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1687" t="inlineStr"/>
     </row>
@@ -49384,7 +49384,7 @@
         </is>
       </c>
       <c r="F1688" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1688" t="inlineStr"/>
     </row>
@@ -49413,7 +49413,7 @@
         </is>
       </c>
       <c r="F1689" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1689" t="inlineStr"/>
     </row>
@@ -49442,7 +49442,7 @@
         </is>
       </c>
       <c r="F1690" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1690" t="inlineStr"/>
     </row>
@@ -49471,7 +49471,7 @@
         </is>
       </c>
       <c r="F1691" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1691" t="inlineStr"/>
     </row>
@@ -49500,7 +49500,7 @@
         </is>
       </c>
       <c r="F1692" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1692" t="inlineStr"/>
     </row>
@@ -49529,7 +49529,7 @@
         </is>
       </c>
       <c r="F1693" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1693" t="inlineStr"/>
     </row>
@@ -49558,7 +49558,7 @@
         </is>
       </c>
       <c r="F1694" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1694" t="inlineStr"/>
     </row>
@@ -49587,7 +49587,7 @@
         </is>
       </c>
       <c r="F1695" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1695" t="inlineStr"/>
     </row>
@@ -49616,7 +49616,7 @@
         </is>
       </c>
       <c r="F1696" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1696" t="inlineStr"/>
     </row>
@@ -49645,7 +49645,7 @@
         </is>
       </c>
       <c r="F1697" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1697" t="inlineStr"/>
     </row>
@@ -49674,7 +49674,7 @@
         </is>
       </c>
       <c r="F1698" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1698" t="inlineStr"/>
     </row>
@@ -49703,7 +49703,7 @@
         </is>
       </c>
       <c r="F1699" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1699" t="inlineStr"/>
     </row>
@@ -49732,7 +49732,7 @@
         </is>
       </c>
       <c r="F1700" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1700" t="inlineStr"/>
     </row>
@@ -49761,7 +49761,7 @@
         </is>
       </c>
       <c r="F1701" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1701" t="inlineStr"/>
     </row>
@@ -49790,7 +49790,7 @@
         </is>
       </c>
       <c r="F1702" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1702" t="inlineStr"/>
     </row>
@@ -49819,7 +49819,7 @@
         </is>
       </c>
       <c r="F1703" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1703" t="inlineStr"/>
     </row>
@@ -49848,7 +49848,7 @@
         </is>
       </c>
       <c r="F1704" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1704" t="inlineStr"/>
     </row>
@@ -49877,7 +49877,7 @@
         </is>
       </c>
       <c r="F1705" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1705" t="inlineStr"/>
     </row>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="F1706" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1706" t="inlineStr"/>
     </row>
@@ -49935,7 +49935,7 @@
         </is>
       </c>
       <c r="F1707" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1707" t="inlineStr"/>
     </row>
@@ -49964,7 +49964,7 @@
         </is>
       </c>
       <c r="F1708" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1708" t="inlineStr"/>
     </row>
@@ -49993,7 +49993,7 @@
         </is>
       </c>
       <c r="F1709" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1709" t="inlineStr"/>
     </row>
@@ -50022,7 +50022,7 @@
         </is>
       </c>
       <c r="F1710" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1710" t="inlineStr"/>
     </row>
@@ -50051,7 +50051,7 @@
         </is>
       </c>
       <c r="F1711" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1711" t="inlineStr"/>
     </row>
@@ -50080,7 +50080,7 @@
         </is>
       </c>
       <c r="F1712" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1712" t="inlineStr"/>
     </row>
@@ -50109,7 +50109,7 @@
         </is>
       </c>
       <c r="F1713" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1713" t="inlineStr"/>
     </row>
@@ -50138,7 +50138,7 @@
         </is>
       </c>
       <c r="F1714" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1714" t="inlineStr"/>
     </row>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="F1715" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1715" t="inlineStr"/>
     </row>
@@ -50196,7 +50196,7 @@
         </is>
       </c>
       <c r="F1716" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1716" t="inlineStr"/>
     </row>
@@ -50225,7 +50225,7 @@
         </is>
       </c>
       <c r="F1717" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1717" t="inlineStr"/>
     </row>
@@ -50254,7 +50254,7 @@
         </is>
       </c>
       <c r="F1718" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1718" t="inlineStr"/>
     </row>
@@ -50283,7 +50283,7 @@
         </is>
       </c>
       <c r="F1719" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1719" t="inlineStr"/>
     </row>
@@ -50312,7 +50312,7 @@
         </is>
       </c>
       <c r="F1720" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1720" t="inlineStr"/>
     </row>
@@ -50341,7 +50341,7 @@
         </is>
       </c>
       <c r="F1721" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1721" t="inlineStr"/>
     </row>
@@ -50370,7 +50370,7 @@
         </is>
       </c>
       <c r="F1722" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1722" t="inlineStr"/>
     </row>
@@ -50399,7 +50399,7 @@
         </is>
       </c>
       <c r="F1723" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1723" t="inlineStr"/>
     </row>
@@ -50428,7 +50428,7 @@
         </is>
       </c>
       <c r="F1724" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1724" t="inlineStr"/>
     </row>
@@ -50457,7 +50457,7 @@
         </is>
       </c>
       <c r="F1725" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1725" t="inlineStr"/>
     </row>
@@ -50486,7 +50486,7 @@
         </is>
       </c>
       <c r="F1726" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1726" t="inlineStr"/>
     </row>
@@ -50515,7 +50515,7 @@
         </is>
       </c>
       <c r="F1727" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1727" t="inlineStr"/>
     </row>
@@ -50544,7 +50544,7 @@
         </is>
       </c>
       <c r="F1728" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1728" t="inlineStr"/>
     </row>
@@ -50573,7 +50573,7 @@
         </is>
       </c>
       <c r="F1729" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1729" t="inlineStr"/>
     </row>
@@ -50602,7 +50602,7 @@
         </is>
       </c>
       <c r="F1730" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1730" t="inlineStr"/>
     </row>
@@ -50631,7 +50631,7 @@
         </is>
       </c>
       <c r="F1731" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1731" t="inlineStr"/>
     </row>
@@ -50660,7 +50660,7 @@
         </is>
       </c>
       <c r="F1732" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1732" t="inlineStr"/>
     </row>
@@ -50689,7 +50689,7 @@
         </is>
       </c>
       <c r="F1733" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1733" t="inlineStr"/>
     </row>
@@ -50718,7 +50718,7 @@
         </is>
       </c>
       <c r="F1734" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1734" t="inlineStr"/>
     </row>
@@ -50747,7 +50747,7 @@
         </is>
       </c>
       <c r="F1735" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1735" t="inlineStr"/>
     </row>
@@ -50776,7 +50776,7 @@
         </is>
       </c>
       <c r="F1736" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1736" t="inlineStr"/>
     </row>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="F1737" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1737" t="inlineStr"/>
     </row>
@@ -50834,7 +50834,7 @@
         </is>
       </c>
       <c r="F1738" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1738" t="inlineStr"/>
     </row>
@@ -50863,7 +50863,7 @@
         </is>
       </c>
       <c r="F1739" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1739" t="inlineStr"/>
     </row>
@@ -50892,7 +50892,7 @@
         </is>
       </c>
       <c r="F1740" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1740" t="inlineStr"/>
     </row>
@@ -50921,7 +50921,7 @@
         </is>
       </c>
       <c r="F1741" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1741" t="inlineStr"/>
     </row>
@@ -50950,7 +50950,7 @@
         </is>
       </c>
       <c r="F1742" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1742" t="inlineStr"/>
     </row>
@@ -50979,7 +50979,7 @@
         </is>
       </c>
       <c r="F1743" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1743" t="inlineStr"/>
     </row>
@@ -51008,7 +51008,7 @@
         </is>
       </c>
       <c r="F1744" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1744" t="inlineStr"/>
     </row>
@@ -51037,7 +51037,7 @@
         </is>
       </c>
       <c r="F1745" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1745" t="inlineStr"/>
     </row>
@@ -51066,7 +51066,7 @@
         </is>
       </c>
       <c r="F1746" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1746" t="inlineStr"/>
     </row>
@@ -51095,7 +51095,7 @@
         </is>
       </c>
       <c r="F1747" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1747" t="inlineStr"/>
     </row>
@@ -51124,7 +51124,7 @@
         </is>
       </c>
       <c r="F1748" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1748" t="inlineStr"/>
     </row>
@@ -51153,7 +51153,7 @@
         </is>
       </c>
       <c r="F1749" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1749" t="inlineStr"/>
     </row>
@@ -51182,7 +51182,7 @@
         </is>
       </c>
       <c r="F1750" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1750" t="inlineStr"/>
     </row>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="F1751" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1751" t="inlineStr"/>
     </row>
@@ -51240,7 +51240,7 @@
         </is>
       </c>
       <c r="F1752" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1752" t="inlineStr"/>
     </row>
@@ -51269,7 +51269,7 @@
         </is>
       </c>
       <c r="F1753" t="n">
-        <v>0.2205396401482364</v>
+        <v>0</v>
       </c>
       <c r="G1753" t="inlineStr"/>
     </row>
@@ -51298,7 +51298,7 @@
         </is>
       </c>
       <c r="F1754" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1754" t="inlineStr"/>
     </row>
@@ -51327,7 +51327,7 @@
         </is>
       </c>
       <c r="F1755" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1755" t="inlineStr"/>
     </row>
@@ -51356,7 +51356,7 @@
         </is>
       </c>
       <c r="F1756" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1756" t="inlineStr"/>
     </row>
@@ -51385,7 +51385,7 @@
         </is>
       </c>
       <c r="F1757" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1757" t="inlineStr"/>
     </row>
@@ -51414,7 +51414,7 @@
         </is>
       </c>
       <c r="F1758" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1758" t="inlineStr"/>
     </row>
@@ -51443,7 +51443,7 @@
         </is>
       </c>
       <c r="F1759" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1759" t="inlineStr"/>
     </row>
@@ -51472,7 +51472,7 @@
         </is>
       </c>
       <c r="F1760" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1760" t="inlineStr"/>
     </row>
@@ -51501,7 +51501,7 @@
         </is>
       </c>
       <c r="F1761" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1761" t="inlineStr"/>
     </row>
@@ -51530,7 +51530,7 @@
         </is>
       </c>
       <c r="F1762" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1762" t="inlineStr"/>
     </row>
@@ -51559,7 +51559,7 @@
         </is>
       </c>
       <c r="F1763" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1763" t="inlineStr"/>
     </row>
@@ -51588,7 +51588,7 @@
         </is>
       </c>
       <c r="F1764" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1764" t="inlineStr"/>
     </row>
@@ -51617,7 +51617,7 @@
         </is>
       </c>
       <c r="F1765" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1765" t="inlineStr"/>
     </row>
@@ -51646,7 +51646,7 @@
         </is>
       </c>
       <c r="F1766" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1766" t="inlineStr"/>
     </row>
@@ -51675,7 +51675,7 @@
         </is>
       </c>
       <c r="F1767" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1767" t="inlineStr"/>
     </row>
@@ -51704,7 +51704,7 @@
         </is>
       </c>
       <c r="F1768" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1768" t="inlineStr"/>
     </row>
@@ -51733,7 +51733,7 @@
         </is>
       </c>
       <c r="F1769" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1769" t="inlineStr"/>
     </row>
@@ -51762,7 +51762,7 @@
         </is>
       </c>
       <c r="F1770" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1770" t="inlineStr"/>
     </row>
@@ -51791,7 +51791,7 @@
         </is>
       </c>
       <c r="F1771" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1771" t="inlineStr"/>
     </row>
@@ -51820,7 +51820,7 @@
         </is>
       </c>
       <c r="F1772" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1772" t="inlineStr"/>
     </row>
@@ -51849,7 +51849,7 @@
         </is>
       </c>
       <c r="F1773" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1773" t="inlineStr"/>
     </row>
@@ -51878,7 +51878,7 @@
         </is>
       </c>
       <c r="F1774" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1774" t="inlineStr"/>
     </row>
@@ -51907,7 +51907,7 @@
         </is>
       </c>
       <c r="F1775" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1775" t="inlineStr"/>
     </row>
@@ -51936,7 +51936,7 @@
         </is>
       </c>
       <c r="F1776" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1776" t="inlineStr"/>
     </row>
@@ -51965,7 +51965,7 @@
         </is>
       </c>
       <c r="F1777" t="n">
-        <v>0.2265717915704727</v>
+        <v>0</v>
       </c>
       <c r="G1777" t="inlineStr"/>
     </row>
@@ -51994,7 +51994,7 @@
         </is>
       </c>
       <c r="F1778" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1778" t="inlineStr"/>
     </row>
@@ -52023,7 +52023,7 @@
         </is>
       </c>
       <c r="F1779" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1779" t="inlineStr"/>
     </row>
@@ -52052,7 +52052,7 @@
         </is>
       </c>
       <c r="F1780" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1780" t="inlineStr"/>
     </row>
@@ -52081,7 +52081,7 @@
         </is>
       </c>
       <c r="F1781" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1781" t="inlineStr"/>
     </row>
@@ -52110,7 +52110,7 @@
         </is>
       </c>
       <c r="F1782" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1782" t="inlineStr"/>
     </row>
@@ -52139,7 +52139,7 @@
         </is>
       </c>
       <c r="F1783" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1783" t="inlineStr"/>
     </row>
@@ -52168,7 +52168,7 @@
         </is>
       </c>
       <c r="F1784" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1784" t="inlineStr"/>
     </row>
@@ -52197,7 +52197,7 @@
         </is>
       </c>
       <c r="F1785" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1785" t="inlineStr"/>
     </row>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="F1786" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1786" t="inlineStr"/>
     </row>
@@ -52255,7 +52255,7 @@
         </is>
       </c>
       <c r="F1787" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1787" t="inlineStr"/>
     </row>
@@ -52284,7 +52284,7 @@
         </is>
       </c>
       <c r="F1788" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1788" t="inlineStr"/>
     </row>
@@ -52313,7 +52313,7 @@
         </is>
       </c>
       <c r="F1789" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1789" t="inlineStr"/>
     </row>
@@ -52342,7 +52342,7 @@
         </is>
       </c>
       <c r="F1790" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1790" t="inlineStr"/>
     </row>
@@ -52371,7 +52371,7 @@
         </is>
       </c>
       <c r="F1791" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1791" t="inlineStr"/>
     </row>
@@ -52400,7 +52400,7 @@
         </is>
       </c>
       <c r="F1792" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1792" t="inlineStr"/>
     </row>
@@ -52429,7 +52429,7 @@
         </is>
       </c>
       <c r="F1793" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1793" t="inlineStr"/>
     </row>
@@ -52458,7 +52458,7 @@
         </is>
       </c>
       <c r="F1794" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1794" t="inlineStr"/>
     </row>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="F1795" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1795" t="inlineStr"/>
     </row>
@@ -52516,7 +52516,7 @@
         </is>
       </c>
       <c r="F1796" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1796" t="inlineStr"/>
     </row>
@@ -52545,7 +52545,7 @@
         </is>
       </c>
       <c r="F1797" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1797" t="inlineStr"/>
     </row>
@@ -52574,7 +52574,7 @@
         </is>
       </c>
       <c r="F1798" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1798" t="inlineStr"/>
     </row>
@@ -52603,7 +52603,7 @@
         </is>
       </c>
       <c r="F1799" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1799" t="inlineStr"/>
     </row>
@@ -52632,7 +52632,7 @@
         </is>
       </c>
       <c r="F1800" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1800" t="inlineStr"/>
     </row>
@@ -52661,7 +52661,7 @@
         </is>
       </c>
       <c r="F1801" t="n">
-        <v>0.394730543126683</v>
+        <v>0</v>
       </c>
       <c r="G1801" t="inlineStr"/>
     </row>
@@ -52690,7 +52690,7 @@
         </is>
       </c>
       <c r="F1802" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1802" t="inlineStr"/>
     </row>
@@ -52719,7 +52719,7 @@
         </is>
       </c>
       <c r="F1803" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1803" t="inlineStr"/>
     </row>
@@ -52748,7 +52748,7 @@
         </is>
       </c>
       <c r="F1804" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1804" t="inlineStr"/>
     </row>
@@ -52777,7 +52777,7 @@
         </is>
       </c>
       <c r="F1805" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1805" t="inlineStr"/>
     </row>
@@ -52806,7 +52806,7 @@
         </is>
       </c>
       <c r="F1806" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1806" t="inlineStr"/>
     </row>
@@ -52835,7 +52835,7 @@
         </is>
       </c>
       <c r="F1807" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1807" t="inlineStr"/>
     </row>
@@ -52864,7 +52864,7 @@
         </is>
       </c>
       <c r="F1808" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1808" t="inlineStr"/>
     </row>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="F1809" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1809" t="inlineStr"/>
     </row>
@@ -52922,7 +52922,7 @@
         </is>
       </c>
       <c r="F1810" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1810" t="inlineStr"/>
     </row>
@@ -52951,7 +52951,7 @@
         </is>
       </c>
       <c r="F1811" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1811" t="inlineStr"/>
     </row>
@@ -52980,7 +52980,7 @@
         </is>
       </c>
       <c r="F1812" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1812" t="inlineStr"/>
     </row>
@@ -53009,7 +53009,7 @@
         </is>
       </c>
       <c r="F1813" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1813" t="inlineStr"/>
     </row>
@@ -53038,7 +53038,7 @@
         </is>
       </c>
       <c r="F1814" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1814" t="inlineStr"/>
     </row>
@@ -53067,7 +53067,7 @@
         </is>
       </c>
       <c r="F1815" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1815" t="inlineStr"/>
     </row>
@@ -53096,7 +53096,7 @@
         </is>
       </c>
       <c r="F1816" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1816" t="inlineStr"/>
     </row>
@@ -53125,7 +53125,7 @@
         </is>
       </c>
       <c r="F1817" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1817" t="inlineStr"/>
     </row>
@@ -53154,7 +53154,7 @@
         </is>
       </c>
       <c r="F1818" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1818" t="inlineStr"/>
     </row>
@@ -53183,7 +53183,7 @@
         </is>
       </c>
       <c r="F1819" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1819" t="inlineStr"/>
     </row>
@@ -53212,7 +53212,7 @@
         </is>
       </c>
       <c r="F1820" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1820" t="inlineStr"/>
     </row>
@@ -53241,7 +53241,7 @@
         </is>
       </c>
       <c r="F1821" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1821" t="inlineStr"/>
     </row>
@@ -53270,7 +53270,7 @@
         </is>
       </c>
       <c r="F1822" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1822" t="inlineStr"/>
     </row>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="F1823" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1823" t="inlineStr"/>
     </row>
@@ -53328,7 +53328,7 @@
         </is>
       </c>
       <c r="F1824" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1824" t="inlineStr"/>
     </row>
@@ -53357,7 +53357,7 @@
         </is>
       </c>
       <c r="F1825" t="n">
-        <v>0.2986549569441984</v>
+        <v>0</v>
       </c>
       <c r="G1825" t="inlineStr"/>
     </row>
@@ -53386,7 +53386,7 @@
         </is>
       </c>
       <c r="F1826" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1826" t="inlineStr"/>
     </row>
@@ -53415,7 +53415,7 @@
         </is>
       </c>
       <c r="F1827" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1827" t="inlineStr"/>
     </row>
@@ -53444,7 +53444,7 @@
         </is>
       </c>
       <c r="F1828" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1828" t="inlineStr"/>
     </row>
@@ -53473,7 +53473,7 @@
         </is>
       </c>
       <c r="F1829" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1829" t="inlineStr"/>
     </row>
@@ -53502,7 +53502,7 @@
         </is>
       </c>
       <c r="F1830" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1830" t="inlineStr"/>
     </row>
@@ -53531,7 +53531,7 @@
         </is>
       </c>
       <c r="F1831" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1831" t="inlineStr"/>
     </row>
@@ -53560,7 +53560,7 @@
         </is>
       </c>
       <c r="F1832" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1832" t="inlineStr"/>
     </row>
@@ -53589,7 +53589,7 @@
         </is>
       </c>
       <c r="F1833" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1833" t="inlineStr"/>
     </row>
@@ -53618,7 +53618,7 @@
         </is>
       </c>
       <c r="F1834" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1834" t="inlineStr"/>
     </row>
@@ -53647,7 +53647,7 @@
         </is>
       </c>
       <c r="F1835" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1835" t="inlineStr"/>
     </row>
@@ -53676,7 +53676,7 @@
         </is>
       </c>
       <c r="F1836" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1836" t="inlineStr"/>
     </row>
@@ -53705,7 +53705,7 @@
         </is>
       </c>
       <c r="F1837" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1837" t="inlineStr"/>
     </row>
@@ -53734,7 +53734,7 @@
         </is>
       </c>
       <c r="F1838" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1838" t="inlineStr"/>
     </row>
@@ -53763,7 +53763,7 @@
         </is>
       </c>
       <c r="F1839" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1839" t="inlineStr"/>
     </row>
@@ -53792,7 +53792,7 @@
         </is>
       </c>
       <c r="F1840" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1840" t="inlineStr"/>
     </row>
@@ -53821,7 +53821,7 @@
         </is>
       </c>
       <c r="F1841" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1841" t="inlineStr"/>
     </row>
@@ -53850,7 +53850,7 @@
         </is>
       </c>
       <c r="F1842" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1842" t="inlineStr"/>
     </row>
@@ -53879,7 +53879,7 @@
         </is>
       </c>
       <c r="F1843" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1843" t="inlineStr"/>
     </row>
@@ -53908,7 +53908,7 @@
         </is>
       </c>
       <c r="F1844" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1844" t="inlineStr"/>
     </row>
@@ -53937,7 +53937,7 @@
         </is>
       </c>
       <c r="F1845" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1845" t="inlineStr"/>
     </row>
@@ -53966,7 +53966,7 @@
         </is>
       </c>
       <c r="F1846" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1846" t="inlineStr"/>
     </row>
@@ -53995,7 +53995,7 @@
         </is>
       </c>
       <c r="F1847" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1847" t="inlineStr"/>
     </row>
@@ -54024,7 +54024,7 @@
         </is>
       </c>
       <c r="F1848" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1848" t="inlineStr"/>
     </row>
@@ -54053,7 +54053,7 @@
         </is>
       </c>
       <c r="F1849" t="n">
-        <v>0.2443097114972512</v>
+        <v>0</v>
       </c>
       <c r="G1849" t="inlineStr"/>
     </row>
@@ -54082,7 +54082,7 @@
         </is>
       </c>
       <c r="F1850" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1850" t="inlineStr"/>
     </row>
@@ -54111,7 +54111,7 @@
         </is>
       </c>
       <c r="F1851" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1851" t="inlineStr"/>
     </row>
@@ -54140,7 +54140,7 @@
         </is>
       </c>
       <c r="F1852" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1852" t="inlineStr"/>
     </row>
@@ -54169,7 +54169,7 @@
         </is>
       </c>
       <c r="F1853" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1853" t="inlineStr"/>
     </row>
@@ -54198,7 +54198,7 @@
         </is>
       </c>
       <c r="F1854" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1854" t="inlineStr"/>
     </row>
@@ -54227,7 +54227,7 @@
         </is>
       </c>
       <c r="F1855" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1855" t="inlineStr"/>
     </row>
@@ -54256,7 +54256,7 @@
         </is>
       </c>
       <c r="F1856" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1856" t="inlineStr"/>
     </row>
@@ -54285,7 +54285,7 @@
         </is>
       </c>
       <c r="F1857" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1857" t="inlineStr"/>
     </row>
@@ -54314,7 +54314,7 @@
         </is>
       </c>
       <c r="F1858" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1858" t="inlineStr"/>
     </row>
@@ -54343,7 +54343,7 @@
         </is>
       </c>
       <c r="F1859" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1859" t="inlineStr"/>
     </row>
@@ -54372,7 +54372,7 @@
         </is>
       </c>
       <c r="F1860" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1860" t="inlineStr"/>
     </row>
@@ -54401,7 +54401,7 @@
         </is>
       </c>
       <c r="F1861" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1861" t="inlineStr"/>
     </row>
@@ -54430,7 +54430,7 @@
         </is>
       </c>
       <c r="F1862" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1862" t="inlineStr"/>
     </row>
@@ -54459,7 +54459,7 @@
         </is>
       </c>
       <c r="F1863" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1863" t="inlineStr"/>
     </row>
@@ -54488,7 +54488,7 @@
         </is>
       </c>
       <c r="F1864" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1864" t="inlineStr"/>
     </row>
@@ -54517,7 +54517,7 @@
         </is>
       </c>
       <c r="F1865" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1865" t="inlineStr"/>
     </row>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="F1866" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1866" t="inlineStr"/>
     </row>
@@ -54575,7 +54575,7 @@
         </is>
       </c>
       <c r="F1867" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1867" t="inlineStr"/>
     </row>
@@ -54604,7 +54604,7 @@
         </is>
       </c>
       <c r="F1868" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1868" t="inlineStr"/>
     </row>
@@ -54633,7 +54633,7 @@
         </is>
       </c>
       <c r="F1869" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1869" t="inlineStr"/>
     </row>
@@ -54662,7 +54662,7 @@
         </is>
       </c>
       <c r="F1870" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1870" t="inlineStr"/>
     </row>
@@ -54691,7 +54691,7 @@
         </is>
       </c>
       <c r="F1871" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1871" t="inlineStr"/>
     </row>
@@ -54720,7 +54720,7 @@
         </is>
       </c>
       <c r="F1872" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1872" t="inlineStr"/>
     </row>
@@ -54749,7 +54749,7 @@
         </is>
       </c>
       <c r="F1873" t="n">
-        <v>0.2582410055026241</v>
+        <v>0</v>
       </c>
       <c r="G1873" t="inlineStr"/>
     </row>
@@ -54778,7 +54778,7 @@
         </is>
       </c>
       <c r="F1874" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1874" t="inlineStr"/>
     </row>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="F1875" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1875" t="inlineStr"/>
     </row>
@@ -54836,7 +54836,7 @@
         </is>
       </c>
       <c r="F1876" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1876" t="inlineStr"/>
     </row>
@@ -54865,7 +54865,7 @@
         </is>
       </c>
       <c r="F1877" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1877" t="inlineStr"/>
     </row>
@@ -54894,7 +54894,7 @@
         </is>
       </c>
       <c r="F1878" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1878" t="inlineStr"/>
     </row>
@@ -54923,7 +54923,7 @@
         </is>
       </c>
       <c r="F1879" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1879" t="inlineStr"/>
     </row>
@@ -54952,7 +54952,7 @@
         </is>
       </c>
       <c r="F1880" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1880" t="inlineStr"/>
     </row>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="F1881" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1881" t="inlineStr"/>
     </row>
@@ -55010,7 +55010,7 @@
         </is>
       </c>
       <c r="F1882" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1882" t="inlineStr"/>
     </row>
@@ -55039,7 +55039,7 @@
         </is>
       </c>
       <c r="F1883" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1883" t="inlineStr"/>
     </row>
@@ -55068,7 +55068,7 @@
         </is>
       </c>
       <c r="F1884" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1884" t="inlineStr"/>
     </row>
@@ -55097,7 +55097,7 @@
         </is>
       </c>
       <c r="F1885" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1885" t="inlineStr"/>
     </row>
@@ -55126,7 +55126,7 @@
         </is>
       </c>
       <c r="F1886" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1886" t="inlineStr"/>
     </row>
@@ -55155,7 +55155,7 @@
         </is>
       </c>
       <c r="F1887" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1887" t="inlineStr"/>
     </row>
@@ -55184,7 +55184,7 @@
         </is>
       </c>
       <c r="F1888" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1888" t="inlineStr"/>
     </row>
@@ -55213,7 +55213,7 @@
         </is>
       </c>
       <c r="F1889" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1889" t="inlineStr"/>
     </row>
@@ -55242,7 +55242,7 @@
         </is>
       </c>
       <c r="F1890" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1890" t="inlineStr"/>
     </row>
@@ -55271,7 +55271,7 @@
         </is>
       </c>
       <c r="F1891" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1891" t="inlineStr"/>
     </row>
@@ -55300,7 +55300,7 @@
         </is>
       </c>
       <c r="F1892" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1892" t="inlineStr"/>
     </row>
@@ -55329,7 +55329,7 @@
         </is>
       </c>
       <c r="F1893" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1893" t="inlineStr"/>
     </row>
@@ -55358,7 +55358,7 @@
         </is>
       </c>
       <c r="F1894" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1894" t="inlineStr"/>
     </row>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="F1895" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1895" t="inlineStr"/>
     </row>
@@ -55416,7 +55416,7 @@
         </is>
       </c>
       <c r="F1896" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1896" t="inlineStr"/>
     </row>
@@ -55445,7 +55445,7 @@
         </is>
       </c>
       <c r="F1897" t="n">
-        <v>0.3548491514460518</v>
+        <v>0</v>
       </c>
       <c r="G1897" t="inlineStr"/>
     </row>
@@ -55474,7 +55474,7 @@
         </is>
       </c>
       <c r="F1898" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1898" t="inlineStr"/>
     </row>
@@ -55503,7 +55503,7 @@
         </is>
       </c>
       <c r="F1899" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1899" t="inlineStr"/>
     </row>
@@ -55532,7 +55532,7 @@
         </is>
       </c>
       <c r="F1900" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1900" t="inlineStr"/>
     </row>
@@ -55561,7 +55561,7 @@
         </is>
       </c>
       <c r="F1901" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1901" t="inlineStr"/>
     </row>
@@ -55590,7 +55590,7 @@
         </is>
       </c>
       <c r="F1902" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1902" t="inlineStr"/>
     </row>
@@ -55619,7 +55619,7 @@
         </is>
       </c>
       <c r="F1903" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1903" t="inlineStr"/>
     </row>
@@ -55648,7 +55648,7 @@
         </is>
       </c>
       <c r="F1904" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1904" t="inlineStr"/>
     </row>
@@ -55677,7 +55677,7 @@
         </is>
       </c>
       <c r="F1905" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1905" t="inlineStr"/>
     </row>
@@ -55706,7 +55706,7 @@
         </is>
       </c>
       <c r="F1906" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1906" t="inlineStr"/>
     </row>
@@ -55735,7 +55735,7 @@
         </is>
       </c>
       <c r="F1907" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1907" t="inlineStr"/>
     </row>
@@ -55764,7 +55764,7 @@
         </is>
       </c>
       <c r="F1908" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1908" t="inlineStr"/>
     </row>
@@ -55793,7 +55793,7 @@
         </is>
       </c>
       <c r="F1909" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1909" t="inlineStr"/>
     </row>
@@ -55822,7 +55822,7 @@
         </is>
       </c>
       <c r="F1910" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1910" t="inlineStr"/>
     </row>
@@ -55851,7 +55851,7 @@
         </is>
       </c>
       <c r="F1911" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1911" t="inlineStr"/>
     </row>
@@ -55880,7 +55880,7 @@
         </is>
       </c>
       <c r="F1912" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1912" t="inlineStr"/>
     </row>
@@ -55909,7 +55909,7 @@
         </is>
       </c>
       <c r="F1913" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1913" t="inlineStr"/>
     </row>
@@ -55938,7 +55938,7 @@
         </is>
       </c>
       <c r="F1914" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1914" t="inlineStr"/>
     </row>
@@ -55967,7 +55967,7 @@
         </is>
       </c>
       <c r="F1915" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1915" t="inlineStr"/>
     </row>
@@ -55996,7 +55996,7 @@
         </is>
       </c>
       <c r="F1916" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1916" t="inlineStr"/>
     </row>
@@ -56025,7 +56025,7 @@
         </is>
       </c>
       <c r="F1917" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1917" t="inlineStr"/>
     </row>
@@ -56054,7 +56054,7 @@
         </is>
       </c>
       <c r="F1918" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1918" t="inlineStr"/>
     </row>
@@ -56083,7 +56083,7 @@
         </is>
       </c>
       <c r="F1919" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1919" t="inlineStr"/>
     </row>
@@ -56112,7 +56112,7 @@
         </is>
       </c>
       <c r="F1920" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1920" t="inlineStr"/>
     </row>
@@ -56141,7 +56141,7 @@
         </is>
       </c>
       <c r="F1921" t="n">
-        <v>0.2833832142366332</v>
+        <v>0</v>
       </c>
       <c r="G1921" t="inlineStr"/>
     </row>
@@ -56170,7 +56170,7 @@
         </is>
       </c>
       <c r="F1922" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1922" t="inlineStr"/>
     </row>
@@ -56199,7 +56199,7 @@
         </is>
       </c>
       <c r="F1923" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1923" t="inlineStr"/>
     </row>
@@ -56228,7 +56228,7 @@
         </is>
       </c>
       <c r="F1924" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1924" t="inlineStr"/>
     </row>
@@ -56257,7 +56257,7 @@
         </is>
       </c>
       <c r="F1925" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1925" t="inlineStr"/>
     </row>
@@ -56286,7 +56286,7 @@
         </is>
       </c>
       <c r="F1926" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1926" t="inlineStr"/>
     </row>
@@ -56315,7 +56315,7 @@
         </is>
       </c>
       <c r="F1927" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1927" t="inlineStr"/>
     </row>
@@ -56344,7 +56344,7 @@
         </is>
       </c>
       <c r="F1928" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1928" t="inlineStr"/>
     </row>
@@ -56373,7 +56373,7 @@
         </is>
       </c>
       <c r="F1929" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1929" t="inlineStr"/>
     </row>
@@ -56402,7 +56402,7 @@
         </is>
       </c>
       <c r="F1930" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1930" t="inlineStr"/>
     </row>
@@ -56431,7 +56431,7 @@
         </is>
       </c>
       <c r="F1931" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1931" t="inlineStr"/>
     </row>
@@ -56460,7 +56460,7 @@
         </is>
       </c>
       <c r="F1932" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1932" t="inlineStr"/>
     </row>
@@ -56489,7 +56489,7 @@
         </is>
       </c>
       <c r="F1933" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1933" t="inlineStr"/>
     </row>
@@ -56518,7 +56518,7 @@
         </is>
       </c>
       <c r="F1934" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1934" t="inlineStr"/>
     </row>
@@ -56547,7 +56547,7 @@
         </is>
       </c>
       <c r="F1935" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1935" t="inlineStr"/>
     </row>
@@ -56576,7 +56576,7 @@
         </is>
       </c>
       <c r="F1936" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1936" t="inlineStr"/>
     </row>
@@ -56605,7 +56605,7 @@
         </is>
       </c>
       <c r="F1937" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1937" t="inlineStr"/>
     </row>
@@ -56634,7 +56634,7 @@
         </is>
       </c>
       <c r="F1938" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1938" t="inlineStr"/>
     </row>
@@ -56663,7 +56663,7 @@
         </is>
       </c>
       <c r="F1939" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1939" t="inlineStr"/>
     </row>
@@ -56692,7 +56692,7 @@
         </is>
       </c>
       <c r="F1940" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1940" t="inlineStr"/>
     </row>
@@ -56721,7 +56721,7 @@
         </is>
       </c>
       <c r="F1941" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1941" t="inlineStr"/>
     </row>
@@ -56750,7 +56750,7 @@
         </is>
       </c>
       <c r="F1942" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1942" t="inlineStr"/>
     </row>
@@ -56779,7 +56779,7 @@
         </is>
       </c>
       <c r="F1943" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1943" t="inlineStr"/>
     </row>
@@ -56808,7 +56808,7 @@
         </is>
       </c>
       <c r="F1944" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1944" t="inlineStr"/>
     </row>
@@ -56837,7 +56837,7 @@
         </is>
       </c>
       <c r="F1945" t="n">
-        <v>0.2756638314242031</v>
+        <v>0</v>
       </c>
       <c r="G1945" t="inlineStr"/>
     </row>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="F1946" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1946" t="inlineStr"/>
     </row>
@@ -56895,7 +56895,7 @@
         </is>
       </c>
       <c r="F1947" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1947" t="inlineStr"/>
     </row>
@@ -56924,7 +56924,7 @@
         </is>
       </c>
       <c r="F1948" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1948" t="inlineStr"/>
     </row>
@@ -56953,7 +56953,7 @@
         </is>
       </c>
       <c r="F1949" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1949" t="inlineStr"/>
     </row>
@@ -56982,7 +56982,7 @@
         </is>
       </c>
       <c r="F1950" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1950" t="inlineStr"/>
     </row>
@@ -57011,7 +57011,7 @@
         </is>
       </c>
       <c r="F1951" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1951" t="inlineStr"/>
     </row>
@@ -57040,7 +57040,7 @@
         </is>
       </c>
       <c r="F1952" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1952" t="inlineStr"/>
     </row>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="F1953" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1953" t="inlineStr"/>
     </row>
@@ -57098,7 +57098,7 @@
         </is>
       </c>
       <c r="F1954" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1954" t="inlineStr"/>
     </row>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="F1955" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1955" t="inlineStr"/>
     </row>
@@ -57156,7 +57156,7 @@
         </is>
       </c>
       <c r="F1956" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1956" t="inlineStr"/>
     </row>
@@ -57185,7 +57185,7 @@
         </is>
       </c>
       <c r="F1957" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1957" t="inlineStr"/>
     </row>
@@ -57214,7 +57214,7 @@
         </is>
       </c>
       <c r="F1958" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1958" t="inlineStr"/>
     </row>
@@ -57243,7 +57243,7 @@
         </is>
       </c>
       <c r="F1959" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1959" t="inlineStr"/>
     </row>
@@ -57272,7 +57272,7 @@
         </is>
       </c>
       <c r="F1960" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1960" t="inlineStr"/>
     </row>
@@ -57301,7 +57301,7 @@
         </is>
       </c>
       <c r="F1961" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1961" t="inlineStr"/>
     </row>
@@ -57330,7 +57330,7 @@
         </is>
       </c>
       <c r="F1962" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1962" t="inlineStr"/>
     </row>
@@ -57359,7 +57359,7 @@
         </is>
       </c>
       <c r="F1963" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1963" t="inlineStr"/>
     </row>
@@ -57388,7 +57388,7 @@
         </is>
       </c>
       <c r="F1964" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1964" t="inlineStr"/>
     </row>
@@ -57417,7 +57417,7 @@
         </is>
       </c>
       <c r="F1965" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1965" t="inlineStr"/>
     </row>
@@ -57446,7 +57446,7 @@
         </is>
       </c>
       <c r="F1966" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1966" t="inlineStr"/>
     </row>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="F1967" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1967" t="inlineStr"/>
     </row>
@@ -57504,7 +57504,7 @@
         </is>
       </c>
       <c r="F1968" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1968" t="inlineStr"/>
     </row>
@@ -57533,7 +57533,7 @@
         </is>
       </c>
       <c r="F1969" t="n">
-        <v>0.28038845732596</v>
+        <v>0</v>
       </c>
       <c r="G1969" t="inlineStr"/>
     </row>
@@ -57562,7 +57562,7 @@
         </is>
       </c>
       <c r="F1970" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1970" t="inlineStr"/>
     </row>
@@ -57591,7 +57591,7 @@
         </is>
       </c>
       <c r="F1971" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1971" t="inlineStr"/>
     </row>
@@ -57620,7 +57620,7 @@
         </is>
       </c>
       <c r="F1972" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1972" t="inlineStr"/>
     </row>
@@ -57649,7 +57649,7 @@
         </is>
       </c>
       <c r="F1973" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1973" t="inlineStr"/>
     </row>
@@ -57678,7 +57678,7 @@
         </is>
       </c>
       <c r="F1974" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1974" t="inlineStr"/>
     </row>
@@ -57707,7 +57707,7 @@
         </is>
       </c>
       <c r="F1975" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1975" t="inlineStr"/>
     </row>
@@ -57736,7 +57736,7 @@
         </is>
       </c>
       <c r="F1976" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1976" t="inlineStr"/>
     </row>
@@ -57765,7 +57765,7 @@
         </is>
       </c>
       <c r="F1977" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1977" t="inlineStr"/>
     </row>
@@ -57794,7 +57794,7 @@
         </is>
       </c>
       <c r="F1978" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1978" t="inlineStr"/>
     </row>
@@ -57823,7 +57823,7 @@
         </is>
       </c>
       <c r="F1979" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1979" t="inlineStr"/>
     </row>
@@ -57852,7 +57852,7 @@
         </is>
       </c>
       <c r="F1980" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1980" t="inlineStr"/>
     </row>
@@ -57881,7 +57881,7 @@
         </is>
       </c>
       <c r="F1981" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1981" t="inlineStr"/>
     </row>
@@ -57910,7 +57910,7 @@
         </is>
       </c>
       <c r="F1982" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1982" t="inlineStr"/>
     </row>
@@ -57939,7 +57939,7 @@
         </is>
       </c>
       <c r="F1983" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1983" t="inlineStr"/>
     </row>
@@ -57968,7 +57968,7 @@
         </is>
       </c>
       <c r="F1984" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1984" t="inlineStr"/>
     </row>
@@ -57997,7 +57997,7 @@
         </is>
       </c>
       <c r="F1985" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1985" t="inlineStr"/>
     </row>
@@ -58026,7 +58026,7 @@
         </is>
       </c>
       <c r="F1986" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1986" t="inlineStr"/>
     </row>
@@ -58055,7 +58055,7 @@
         </is>
       </c>
       <c r="F1987" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1987" t="inlineStr"/>
     </row>
@@ -58084,7 +58084,7 @@
         </is>
       </c>
       <c r="F1988" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1988" t="inlineStr"/>
     </row>
@@ -58113,7 +58113,7 @@
         </is>
       </c>
       <c r="F1989" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1989" t="inlineStr"/>
     </row>
@@ -58142,7 +58142,7 @@
         </is>
       </c>
       <c r="F1990" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1990" t="inlineStr"/>
     </row>
@@ -58171,7 +58171,7 @@
         </is>
       </c>
       <c r="F1991" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1991" t="inlineStr"/>
     </row>
@@ -58200,7 +58200,7 @@
         </is>
       </c>
       <c r="F1992" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1992" t="inlineStr"/>
     </row>
@@ -58229,7 +58229,7 @@
         </is>
       </c>
       <c r="F1993" t="n">
-        <v>0.3148938736787447</v>
+        <v>0</v>
       </c>
       <c r="G1993" t="inlineStr"/>
     </row>
@@ -58258,7 +58258,7 @@
         </is>
       </c>
       <c r="F1994" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1994" t="inlineStr"/>
     </row>
@@ -58287,7 +58287,7 @@
         </is>
       </c>
       <c r="F1995" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1995" t="inlineStr"/>
     </row>
@@ -58316,7 +58316,7 @@
         </is>
       </c>
       <c r="F1996" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1996" t="inlineStr"/>
     </row>
@@ -58345,7 +58345,7 @@
         </is>
       </c>
       <c r="F1997" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1997" t="inlineStr"/>
     </row>
@@ -58374,7 +58374,7 @@
         </is>
       </c>
       <c r="F1998" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1998" t="inlineStr"/>
     </row>
@@ -58403,7 +58403,7 @@
         </is>
       </c>
       <c r="F1999" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G1999" t="inlineStr"/>
     </row>
@@ -58432,7 +58432,7 @@
         </is>
       </c>
       <c r="F2000" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2000" t="inlineStr"/>
     </row>
@@ -58461,7 +58461,7 @@
         </is>
       </c>
       <c r="F2001" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2001" t="inlineStr"/>
     </row>
@@ -58490,7 +58490,7 @@
         </is>
       </c>
       <c r="F2002" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2002" t="inlineStr"/>
     </row>
@@ -58519,7 +58519,7 @@
         </is>
       </c>
       <c r="F2003" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2003" t="inlineStr"/>
     </row>
@@ -58548,7 +58548,7 @@
         </is>
       </c>
       <c r="F2004" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2004" t="inlineStr"/>
     </row>
@@ -58577,7 +58577,7 @@
         </is>
       </c>
       <c r="F2005" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2005" t="inlineStr"/>
     </row>
@@ -58606,7 +58606,7 @@
         </is>
       </c>
       <c r="F2006" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2006" t="inlineStr"/>
     </row>
@@ -58635,7 +58635,7 @@
         </is>
       </c>
       <c r="F2007" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2007" t="inlineStr"/>
     </row>
@@ -58664,7 +58664,7 @@
         </is>
       </c>
       <c r="F2008" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2008" t="inlineStr"/>
     </row>
@@ -58693,7 +58693,7 @@
         </is>
       </c>
       <c r="F2009" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2009" t="inlineStr"/>
     </row>
@@ -58722,7 +58722,7 @@
         </is>
       </c>
       <c r="F2010" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2010" t="inlineStr"/>
     </row>
@@ -58751,7 +58751,7 @@
         </is>
       </c>
       <c r="F2011" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2011" t="inlineStr"/>
     </row>
@@ -58780,7 +58780,7 @@
         </is>
       </c>
       <c r="F2012" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2012" t="inlineStr"/>
     </row>
@@ -58809,7 +58809,7 @@
         </is>
       </c>
       <c r="F2013" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2013" t="inlineStr"/>
     </row>
@@ -58838,7 +58838,7 @@
         </is>
       </c>
       <c r="F2014" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2014" t="inlineStr"/>
     </row>
@@ -58867,7 +58867,7 @@
         </is>
       </c>
       <c r="F2015" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2015" t="inlineStr"/>
     </row>
@@ -58896,7 +58896,7 @@
         </is>
       </c>
       <c r="F2016" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2016" t="inlineStr"/>
     </row>
@@ -58925,7 +58925,7 @@
         </is>
       </c>
       <c r="F2017" t="n">
-        <v>0.2702910237249621</v>
+        <v>0</v>
       </c>
       <c r="G2017" t="inlineStr"/>
     </row>
